--- a/Raymour & Flanigan - NEW lables needed.xlsx
+++ b/Raymour & Flanigan - NEW lables needed.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Copy of R&amp;F PO 04284L6QTFI" sheetId="1" r:id="rId4"/>
+    <sheet name="Copy of R&amp;F PO 0508455935TL" sheetId="1" r:id="rId1"/>
+    <sheet name="Copy of R&amp;F PO 0508455936TL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Raymour &amp; Flanigan - NEW labels needed</t>
   </si>
@@ -31,72 +48,273 @@
     <t>R&amp;F SKU</t>
   </si>
   <si>
-    <t>04284L6QTFI</t>
+    <t>0508455935TL</t>
   </si>
   <si>
-    <t>NEW JERSEY DISTRIBUTION CENTER</t>
+    <t>SUFFERN CUSTOMER DISTRIBUTION CENTER</t>
   </si>
   <si>
-    <t>20240115-Y000299</t>
+    <t>20231023-Y000045</t>
   </si>
   <si>
-    <t>R3TLD24TK</t>
+    <t>R31LD23TX</t>
   </si>
   <si>
-    <t>341 SWEDESBORO AVENUE</t>
+    <t>30 DUNNIGAN DRIVE</t>
   </si>
   <si>
-    <t>GIBBSTOWN, NJ 08027</t>
+    <t>20231023-Y000046</t>
+  </si>
+  <si>
+    <t>SUFFERN , NY 10901</t>
+  </si>
+  <si>
+    <t>20231023-Y000075</t>
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>20231023-Y000076</t>
+  </si>
+  <si>
+    <t>20231023-Y000077</t>
+  </si>
+  <si>
+    <t>20231023-Y000078</t>
+  </si>
+  <si>
+    <t>20231024-Y000253</t>
+  </si>
+  <si>
+    <t>R31LD23QN</t>
+  </si>
+  <si>
+    <t>20231024-Y000254</t>
+  </si>
+  <si>
+    <t>0508455936TL</t>
+  </si>
+  <si>
+    <t>20231016-Y000001</t>
+  </si>
+  <si>
+    <t>R31LD23KG</t>
+  </si>
+  <si>
+    <t>20231016-Y000002</t>
+  </si>
+  <si>
+    <t>20231016-Y000003</t>
+  </si>
+  <si>
+    <t>20231016-Y000004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF222222"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -104,59 +322,739 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -346,40 +1244,43 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:H643"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15:I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.13"/>
-    <col customWidth="1" min="2" max="2" width="5.13"/>
-    <col customWidth="1" min="3" max="3" width="38.38"/>
-    <col customWidth="1" min="4" max="4" width="5.13"/>
-    <col customWidth="1" min="5" max="5" width="25.38"/>
-    <col customWidth="1" min="6" max="6" width="5.13"/>
-    <col customWidth="1" min="7" max="7" width="17.63"/>
+    <col min="1" max="1" width="23.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="5.13333333333333" customWidth="1"/>
+    <col min="3" max="3" width="38.3809523809524" customWidth="1"/>
+    <col min="4" max="4" width="5.13333333333333" customWidth="1"/>
+    <col min="5" max="5" width="25.3809523809524" customWidth="1"/>
+    <col min="6" max="6" width="5.13333333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.6285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -387,9 +1288,9 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -397,29 +1298,29 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -427,3383 +1328,5700 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="9">
-        <v>4.89132402E8</v>
+      <c r="H6" s="5">
+        <v>484132306</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="4"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" spans="8:8">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" customHeight="1" spans="5:8">
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="3">
+        <v>486132308</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="5:8">
+      <c r="E14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" customHeight="1" spans="5:8">
+      <c r="E15" s="5"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" customHeight="1" spans="5:8">
+      <c r="E16" s="5"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" customHeight="1" spans="5:8">
+      <c r="E17" s="5"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" customHeight="1" spans="5:8">
+      <c r="E18" s="5"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" customHeight="1" spans="5:8">
+      <c r="E19" s="5"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" customHeight="1" spans="5:8">
+      <c r="E20" s="5"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" customHeight="1" spans="5:8">
+      <c r="E21" s="5"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" customHeight="1" spans="5:8">
+      <c r="E22" s="5"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" customHeight="1" spans="5:8">
+      <c r="E23" s="5"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" customHeight="1" spans="5:8">
+      <c r="E24" s="5"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" customHeight="1" spans="5:8">
+      <c r="E25" s="5"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" customHeight="1" spans="5:8">
+      <c r="E26" s="5"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" customHeight="1" spans="5:8">
+      <c r="E27" s="5"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" customHeight="1" spans="5:8">
+      <c r="E28" s="5"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" customHeight="1" spans="5:8">
+      <c r="E29" s="5"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" customHeight="1" spans="5:8">
+      <c r="E30" s="5"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" customHeight="1" spans="5:8">
+      <c r="E31" s="5"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" customHeight="1" spans="5:8">
+      <c r="E32" s="5"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" customHeight="1" spans="5:8">
+      <c r="E33" s="5"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" customHeight="1" spans="5:8">
+      <c r="E34" s="5"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" customHeight="1" spans="5:8">
+      <c r="E35" s="5"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" customHeight="1" spans="5:8">
+      <c r="E36" s="5"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" customHeight="1" spans="5:8">
+      <c r="E37" s="5"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" customHeight="1" spans="5:8">
+      <c r="E38" s="5"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" customHeight="1" spans="5:8">
+      <c r="E39" s="5"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" customHeight="1" spans="5:8">
+      <c r="E40" s="5"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" customHeight="1" spans="8:8">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" customHeight="1" spans="8:8">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" customHeight="1" spans="8:8">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" customHeight="1" spans="8:8">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" customHeight="1" spans="8:8">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" customHeight="1" spans="8:8">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" customHeight="1" spans="8:8">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" customHeight="1" spans="8:8">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" customHeight="1" spans="8:8">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" customHeight="1" spans="8:8">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" customHeight="1" spans="8:8">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" customHeight="1" spans="8:8">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" customHeight="1" spans="8:8">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" customHeight="1" spans="8:8">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" customHeight="1" spans="8:8">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" customHeight="1" spans="8:8">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" customHeight="1" spans="8:8">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" customHeight="1" spans="8:8">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" customHeight="1" spans="8:8">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" customHeight="1" spans="8:8">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" customHeight="1" spans="8:8">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" customHeight="1" spans="8:8">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" customHeight="1" spans="8:8">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" customHeight="1" spans="8:8">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" customHeight="1" spans="8:8">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" customHeight="1" spans="8:8">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" customHeight="1" spans="8:8">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" customHeight="1" spans="8:8">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" customHeight="1" spans="8:8">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" customHeight="1" spans="8:8">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" customHeight="1" spans="8:8">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" customHeight="1" spans="8:8">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" customHeight="1" spans="8:8">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" customHeight="1" spans="8:8">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" customHeight="1" spans="8:8">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" customHeight="1" spans="8:8">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" customHeight="1" spans="8:8">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" customHeight="1" spans="8:8">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" customHeight="1" spans="8:8">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" customHeight="1" spans="8:8">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" customHeight="1" spans="8:8">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" customHeight="1" spans="8:8">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" customHeight="1" spans="8:8">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" customHeight="1" spans="8:8">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" customHeight="1" spans="8:8">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" customHeight="1" spans="8:8">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" customHeight="1" spans="8:8">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" customHeight="1" spans="8:8">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" customHeight="1" spans="8:8">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" customHeight="1" spans="8:8">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" customHeight="1" spans="8:8">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" customHeight="1" spans="8:8">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" customHeight="1" spans="8:8">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" customHeight="1" spans="8:8">
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" customHeight="1" spans="8:8">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" customHeight="1" spans="8:8">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" customHeight="1" spans="8:8">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" customHeight="1" spans="8:8">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" customHeight="1" spans="8:8">
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" customHeight="1" spans="8:8">
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" customHeight="1" spans="8:8">
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" customHeight="1" spans="8:8">
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" customHeight="1" spans="8:8">
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" customHeight="1" spans="8:8">
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" customHeight="1" spans="8:8">
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" customHeight="1" spans="8:8">
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" customHeight="1" spans="8:8">
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" customHeight="1" spans="8:8">
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" customHeight="1" spans="8:8">
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" customHeight="1" spans="8:8">
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" customHeight="1" spans="8:8">
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" customHeight="1" spans="8:8">
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" customHeight="1" spans="8:8">
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" customHeight="1" spans="8:8">
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" customHeight="1" spans="8:8">
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" customHeight="1" spans="8:8">
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" customHeight="1" spans="8:8">
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" customHeight="1" spans="8:8">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" customHeight="1" spans="8:8">
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" customHeight="1" spans="8:8">
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" customHeight="1" spans="8:8">
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" customHeight="1" spans="8:8">
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" customHeight="1" spans="8:8">
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" customHeight="1" spans="8:8">
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" customHeight="1" spans="8:8">
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" customHeight="1" spans="8:8">
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" customHeight="1" spans="8:8">
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" customHeight="1" spans="8:8">
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" customHeight="1" spans="8:8">
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" customHeight="1" spans="8:8">
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" customHeight="1" spans="8:8">
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" customHeight="1" spans="8:8">
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" customHeight="1" spans="8:8">
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" customHeight="1" spans="8:8">
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" customHeight="1" spans="8:8">
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" customHeight="1" spans="8:8">
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" customHeight="1" spans="8:8">
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" customHeight="1" spans="8:8">
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" customHeight="1" spans="8:8">
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" customHeight="1" spans="8:8">
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" customHeight="1" spans="8:8">
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" customHeight="1" spans="8:8">
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" customHeight="1" spans="8:8">
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" customHeight="1" spans="8:8">
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" customHeight="1" spans="8:8">
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" customHeight="1" spans="8:8">
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" customHeight="1" spans="8:8">
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" customHeight="1" spans="8:8">
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" customHeight="1" spans="8:8">
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" customHeight="1" spans="8:8">
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" customHeight="1" spans="8:8">
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" customHeight="1" spans="8:8">
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" customHeight="1" spans="8:8">
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" customHeight="1" spans="8:8">
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" customHeight="1" spans="8:8">
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" customHeight="1" spans="8:8">
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" customHeight="1" spans="8:8">
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" customHeight="1" spans="8:8">
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" customHeight="1" spans="8:8">
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" customHeight="1" spans="8:8">
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" customHeight="1" spans="8:8">
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" customHeight="1" spans="8:8">
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" customHeight="1" spans="8:8">
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" customHeight="1" spans="8:8">
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" customHeight="1" spans="8:8">
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" customHeight="1" spans="8:8">
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" customHeight="1" spans="8:8">
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" customHeight="1" spans="8:8">
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" customHeight="1" spans="8:8">
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" customHeight="1" spans="8:8">
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" customHeight="1" spans="8:8">
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" customHeight="1" spans="8:8">
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" customHeight="1" spans="8:8">
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" customHeight="1" spans="8:8">
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" customHeight="1" spans="8:8">
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" customHeight="1" spans="8:8">
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" customHeight="1" spans="8:8">
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" customHeight="1" spans="8:8">
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" customHeight="1" spans="8:8">
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" customHeight="1" spans="8:8">
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" customHeight="1" spans="8:8">
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" customHeight="1" spans="8:8">
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" customHeight="1" spans="8:8">
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" customHeight="1" spans="8:8">
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" customHeight="1" spans="8:8">
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" customHeight="1" spans="8:8">
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" customHeight="1" spans="8:8">
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" customHeight="1" spans="8:8">
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" customHeight="1" spans="8:8">
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" customHeight="1" spans="8:8">
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" customHeight="1" spans="8:8">
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" customHeight="1" spans="8:8">
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" customHeight="1" spans="8:8">
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" customHeight="1" spans="8:8">
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" customHeight="1" spans="8:8">
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" customHeight="1" spans="8:8">
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" customHeight="1" spans="8:8">
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" customHeight="1" spans="8:8">
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" customHeight="1" spans="8:8">
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" customHeight="1" spans="8:8">
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" customHeight="1" spans="8:8">
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" customHeight="1" spans="8:8">
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" customHeight="1" spans="8:8">
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" customHeight="1" spans="8:8">
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" customHeight="1" spans="8:8">
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" customHeight="1" spans="8:8">
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" customHeight="1" spans="8:8">
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" customHeight="1" spans="8:8">
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" customHeight="1" spans="8:8">
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" customHeight="1" spans="8:8">
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" customHeight="1" spans="8:8">
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" customHeight="1" spans="8:8">
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" customHeight="1" spans="8:8">
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" customHeight="1" spans="8:8">
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" customHeight="1" spans="8:8">
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" customHeight="1" spans="8:8">
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" customHeight="1" spans="8:8">
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" customHeight="1" spans="8:8">
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" customHeight="1" spans="8:8">
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" customHeight="1" spans="8:8">
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" customHeight="1" spans="8:8">
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" customHeight="1" spans="8:8">
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" customHeight="1" spans="8:8">
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" customHeight="1" spans="8:8">
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" customHeight="1" spans="8:8">
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" customHeight="1" spans="8:8">
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" customHeight="1" spans="8:8">
+      <c r="H227" s="3"/>
+    </row>
+    <row r="228" customHeight="1" spans="8:8">
+      <c r="H228" s="3"/>
+    </row>
+    <row r="229" customHeight="1" spans="8:8">
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" customHeight="1" spans="8:8">
+      <c r="H230" s="3"/>
+    </row>
+    <row r="231" customHeight="1" spans="8:8">
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" customHeight="1" spans="8:8">
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" customHeight="1" spans="8:8">
+      <c r="H233" s="3"/>
+    </row>
+    <row r="234" customHeight="1" spans="8:8">
+      <c r="H234" s="3"/>
+    </row>
+    <row r="235" customHeight="1" spans="8:8">
+      <c r="H235" s="3"/>
+    </row>
+    <row r="236" customHeight="1" spans="8:8">
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" customHeight="1" spans="8:8">
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" customHeight="1" spans="8:8">
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" customHeight="1" spans="8:8">
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" customHeight="1" spans="8:8">
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" customHeight="1" spans="8:8">
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" customHeight="1" spans="8:8">
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" customHeight="1" spans="8:8">
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" customHeight="1" spans="8:8">
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" customHeight="1" spans="8:8">
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" customHeight="1" spans="8:8">
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" customHeight="1" spans="8:8">
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" customHeight="1" spans="8:8">
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" customHeight="1" spans="8:8">
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" customHeight="1" spans="8:8">
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" customHeight="1" spans="8:8">
+      <c r="H251" s="3"/>
+    </row>
+    <row r="252" customHeight="1" spans="8:8">
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" customHeight="1" spans="8:8">
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" customHeight="1" spans="8:8">
+      <c r="H254" s="3"/>
+    </row>
+    <row r="255" customHeight="1" spans="8:8">
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" customHeight="1" spans="8:8">
+      <c r="H256" s="3"/>
+    </row>
+    <row r="257" customHeight="1" spans="8:8">
+      <c r="H257" s="3"/>
+    </row>
+    <row r="258" customHeight="1" spans="8:8">
+      <c r="H258" s="3"/>
+    </row>
+    <row r="259" customHeight="1" spans="8:8">
+      <c r="H259" s="3"/>
+    </row>
+    <row r="260" customHeight="1" spans="8:8">
+      <c r="H260" s="3"/>
+    </row>
+    <row r="261" customHeight="1" spans="8:8">
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" customHeight="1" spans="8:8">
+      <c r="H262" s="3"/>
+    </row>
+    <row r="263" customHeight="1" spans="8:8">
+      <c r="H263" s="3"/>
+    </row>
+    <row r="264" customHeight="1" spans="8:8">
+      <c r="H264" s="3"/>
+    </row>
+    <row r="265" customHeight="1" spans="8:8">
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" customHeight="1" spans="8:8">
+      <c r="H266" s="3"/>
+    </row>
+    <row r="267" customHeight="1" spans="8:8">
+      <c r="H267" s="3"/>
+    </row>
+    <row r="268" customHeight="1" spans="8:8">
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" customHeight="1" spans="8:8">
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" customHeight="1" spans="8:8">
+      <c r="H270" s="3"/>
+    </row>
+    <row r="271" customHeight="1" spans="8:8">
+      <c r="H271" s="3"/>
+    </row>
+    <row r="272" customHeight="1" spans="8:8">
+      <c r="H272" s="3"/>
+    </row>
+    <row r="273" customHeight="1" spans="8:8">
+      <c r="H273" s="3"/>
+    </row>
+    <row r="274" customHeight="1" spans="8:8">
+      <c r="H274" s="3"/>
+    </row>
+    <row r="275" customHeight="1" spans="8:8">
+      <c r="H275" s="3"/>
+    </row>
+    <row r="276" customHeight="1" spans="8:8">
+      <c r="H276" s="3"/>
+    </row>
+    <row r="277" customHeight="1" spans="8:8">
+      <c r="H277" s="3"/>
+    </row>
+    <row r="278" customHeight="1" spans="8:8">
+      <c r="H278" s="3"/>
+    </row>
+    <row r="279" customHeight="1" spans="8:8">
+      <c r="H279" s="3"/>
+    </row>
+    <row r="280" customHeight="1" spans="8:8">
+      <c r="H280" s="3"/>
+    </row>
+    <row r="281" customHeight="1" spans="8:8">
+      <c r="H281" s="3"/>
+    </row>
+    <row r="282" customHeight="1" spans="8:8">
+      <c r="H282" s="3"/>
+    </row>
+    <row r="283" customHeight="1" spans="8:8">
+      <c r="H283" s="3"/>
+    </row>
+    <row r="284" customHeight="1" spans="8:8">
+      <c r="H284" s="3"/>
+    </row>
+    <row r="285" customHeight="1" spans="8:8">
+      <c r="H285" s="3"/>
+    </row>
+    <row r="286" customHeight="1" spans="8:8">
+      <c r="H286" s="3"/>
+    </row>
+    <row r="287" customHeight="1" spans="8:8">
+      <c r="H287" s="3"/>
+    </row>
+    <row r="288" customHeight="1" spans="8:8">
+      <c r="H288" s="3"/>
+    </row>
+    <row r="289" customHeight="1" spans="8:8">
+      <c r="H289" s="3"/>
+    </row>
+    <row r="290" customHeight="1" spans="8:8">
+      <c r="H290" s="3"/>
+    </row>
+    <row r="291" customHeight="1" spans="8:8">
+      <c r="H291" s="3"/>
+    </row>
+    <row r="292" customHeight="1" spans="8:8">
+      <c r="H292" s="3"/>
+    </row>
+    <row r="293" customHeight="1" spans="8:8">
+      <c r="H293" s="3"/>
+    </row>
+    <row r="294" customHeight="1" spans="8:8">
+      <c r="H294" s="3"/>
+    </row>
+    <row r="295" customHeight="1" spans="8:8">
+      <c r="H295" s="3"/>
+    </row>
+    <row r="296" customHeight="1" spans="8:8">
+      <c r="H296" s="3"/>
+    </row>
+    <row r="297" customHeight="1" spans="8:8">
+      <c r="H297" s="3"/>
+    </row>
+    <row r="298" customHeight="1" spans="8:8">
+      <c r="H298" s="3"/>
+    </row>
+    <row r="299" customHeight="1" spans="8:8">
+      <c r="H299" s="3"/>
+    </row>
+    <row r="300" customHeight="1" spans="8:8">
+      <c r="H300" s="3"/>
+    </row>
+    <row r="301" customHeight="1" spans="8:8">
+      <c r="H301" s="3"/>
+    </row>
+    <row r="302" customHeight="1" spans="8:8">
+      <c r="H302" s="3"/>
+    </row>
+    <row r="303" customHeight="1" spans="8:8">
+      <c r="H303" s="3"/>
+    </row>
+    <row r="304" customHeight="1" spans="8:8">
+      <c r="H304" s="3"/>
+    </row>
+    <row r="305" customHeight="1" spans="8:8">
+      <c r="H305" s="3"/>
+    </row>
+    <row r="306" customHeight="1" spans="8:8">
+      <c r="H306" s="3"/>
+    </row>
+    <row r="307" customHeight="1" spans="8:8">
+      <c r="H307" s="3"/>
+    </row>
+    <row r="308" customHeight="1" spans="8:8">
+      <c r="H308" s="3"/>
+    </row>
+    <row r="309" customHeight="1" spans="8:8">
+      <c r="H309" s="3"/>
+    </row>
+    <row r="310" customHeight="1" spans="8:8">
+      <c r="H310" s="3"/>
+    </row>
+    <row r="311" customHeight="1" spans="8:8">
+      <c r="H311" s="3"/>
+    </row>
+    <row r="312" customHeight="1" spans="8:8">
+      <c r="H312" s="3"/>
+    </row>
+    <row r="313" customHeight="1" spans="8:8">
+      <c r="H313" s="3"/>
+    </row>
+    <row r="314" customHeight="1" spans="8:8">
+      <c r="H314" s="3"/>
+    </row>
+    <row r="315" customHeight="1" spans="8:8">
+      <c r="H315" s="3"/>
+    </row>
+    <row r="316" customHeight="1" spans="8:8">
+      <c r="H316" s="3"/>
+    </row>
+    <row r="317" customHeight="1" spans="8:8">
+      <c r="H317" s="3"/>
+    </row>
+    <row r="318" customHeight="1" spans="8:8">
+      <c r="H318" s="3"/>
+    </row>
+    <row r="319" customHeight="1" spans="8:8">
+      <c r="H319" s="3"/>
+    </row>
+    <row r="320" customHeight="1" spans="8:8">
+      <c r="H320" s="3"/>
+    </row>
+    <row r="321" customHeight="1" spans="8:8">
+      <c r="H321" s="3"/>
+    </row>
+    <row r="322" customHeight="1" spans="8:8">
+      <c r="H322" s="3"/>
+    </row>
+    <row r="323" customHeight="1" spans="8:8">
+      <c r="H323" s="3"/>
+    </row>
+    <row r="324" customHeight="1" spans="8:8">
+      <c r="H324" s="3"/>
+    </row>
+    <row r="325" customHeight="1" spans="8:8">
+      <c r="H325" s="3"/>
+    </row>
+    <row r="326" customHeight="1" spans="8:8">
+      <c r="H326" s="3"/>
+    </row>
+    <row r="327" customHeight="1" spans="8:8">
+      <c r="H327" s="3"/>
+    </row>
+    <row r="328" customHeight="1" spans="8:8">
+      <c r="H328" s="3"/>
+    </row>
+    <row r="329" customHeight="1" spans="8:8">
+      <c r="H329" s="3"/>
+    </row>
+    <row r="330" customHeight="1" spans="8:8">
+      <c r="H330" s="3"/>
+    </row>
+    <row r="331" customHeight="1" spans="8:8">
+      <c r="H331" s="3"/>
+    </row>
+    <row r="332" customHeight="1" spans="8:8">
+      <c r="H332" s="3"/>
+    </row>
+    <row r="333" customHeight="1" spans="8:8">
+      <c r="H333" s="3"/>
+    </row>
+    <row r="334" customHeight="1" spans="8:8">
+      <c r="H334" s="3"/>
+    </row>
+    <row r="335" customHeight="1" spans="8:8">
+      <c r="H335" s="3"/>
+    </row>
+    <row r="336" customHeight="1" spans="8:8">
+      <c r="H336" s="3"/>
+    </row>
+    <row r="337" customHeight="1" spans="8:8">
+      <c r="H337" s="3"/>
+    </row>
+    <row r="338" customHeight="1" spans="8:8">
+      <c r="H338" s="3"/>
+    </row>
+    <row r="339" customHeight="1" spans="8:8">
+      <c r="H339" s="3"/>
+    </row>
+    <row r="340" customHeight="1" spans="8:8">
+      <c r="H340" s="3"/>
+    </row>
+    <row r="341" customHeight="1" spans="8:8">
+      <c r="H341" s="3"/>
+    </row>
+    <row r="342" customHeight="1" spans="8:8">
+      <c r="H342" s="3"/>
+    </row>
+    <row r="343" customHeight="1" spans="8:8">
+      <c r="H343" s="3"/>
+    </row>
+    <row r="344" customHeight="1" spans="8:8">
+      <c r="H344" s="3"/>
+    </row>
+    <row r="345" customHeight="1" spans="8:8">
+      <c r="H345" s="3"/>
+    </row>
+    <row r="346" customHeight="1" spans="8:8">
+      <c r="H346" s="3"/>
+    </row>
+    <row r="347" customHeight="1" spans="8:8">
+      <c r="H347" s="3"/>
+    </row>
+    <row r="348" customHeight="1" spans="8:8">
+      <c r="H348" s="3"/>
+    </row>
+    <row r="349" customHeight="1" spans="8:8">
+      <c r="H349" s="3"/>
+    </row>
+    <row r="350" customHeight="1" spans="8:8">
+      <c r="H350" s="3"/>
+    </row>
+    <row r="351" customHeight="1" spans="8:8">
+      <c r="H351" s="3"/>
+    </row>
+    <row r="352" customHeight="1" spans="8:8">
+      <c r="H352" s="3"/>
+    </row>
+    <row r="353" customHeight="1" spans="8:8">
+      <c r="H353" s="3"/>
+    </row>
+    <row r="354" customHeight="1" spans="8:8">
+      <c r="H354" s="3"/>
+    </row>
+    <row r="355" customHeight="1" spans="8:8">
+      <c r="H355" s="3"/>
+    </row>
+    <row r="356" customHeight="1" spans="8:8">
+      <c r="H356" s="3"/>
+    </row>
+    <row r="357" customHeight="1" spans="8:8">
+      <c r="H357" s="3"/>
+    </row>
+    <row r="358" customHeight="1" spans="8:8">
+      <c r="H358" s="3"/>
+    </row>
+    <row r="359" customHeight="1" spans="8:8">
+      <c r="H359" s="3"/>
+    </row>
+    <row r="360" customHeight="1" spans="8:8">
+      <c r="H360" s="3"/>
+    </row>
+    <row r="361" customHeight="1" spans="8:8">
+      <c r="H361" s="3"/>
+    </row>
+    <row r="362" customHeight="1" spans="8:8">
+      <c r="H362" s="3"/>
+    </row>
+    <row r="363" customHeight="1" spans="8:8">
+      <c r="H363" s="3"/>
+    </row>
+    <row r="364" customHeight="1" spans="8:8">
+      <c r="H364" s="3"/>
+    </row>
+    <row r="365" customHeight="1" spans="8:8">
+      <c r="H365" s="3"/>
+    </row>
+    <row r="366" customHeight="1" spans="8:8">
+      <c r="H366" s="3"/>
+    </row>
+    <row r="367" customHeight="1" spans="8:8">
+      <c r="H367" s="3"/>
+    </row>
+    <row r="368" customHeight="1" spans="8:8">
+      <c r="H368" s="3"/>
+    </row>
+    <row r="369" customHeight="1" spans="8:8">
+      <c r="H369" s="3"/>
+    </row>
+    <row r="370" customHeight="1" spans="8:8">
+      <c r="H370" s="3"/>
+    </row>
+    <row r="371" customHeight="1" spans="8:8">
+      <c r="H371" s="3"/>
+    </row>
+    <row r="372" customHeight="1" spans="8:8">
+      <c r="H372" s="3"/>
+    </row>
+    <row r="373" customHeight="1" spans="8:8">
+      <c r="H373" s="3"/>
+    </row>
+    <row r="374" customHeight="1" spans="8:8">
+      <c r="H374" s="3"/>
+    </row>
+    <row r="375" customHeight="1" spans="8:8">
+      <c r="H375" s="3"/>
+    </row>
+    <row r="376" customHeight="1" spans="8:8">
+      <c r="H376" s="3"/>
+    </row>
+    <row r="377" customHeight="1" spans="8:8">
+      <c r="H377" s="3"/>
+    </row>
+    <row r="378" customHeight="1" spans="8:8">
+      <c r="H378" s="3"/>
+    </row>
+    <row r="379" customHeight="1" spans="8:8">
+      <c r="H379" s="3"/>
+    </row>
+    <row r="380" customHeight="1" spans="8:8">
+      <c r="H380" s="3"/>
+    </row>
+    <row r="381" customHeight="1" spans="8:8">
+      <c r="H381" s="3"/>
+    </row>
+    <row r="382" customHeight="1" spans="8:8">
+      <c r="H382" s="3"/>
+    </row>
+    <row r="383" customHeight="1" spans="8:8">
+      <c r="H383" s="3"/>
+    </row>
+    <row r="384" customHeight="1" spans="8:8">
+      <c r="H384" s="3"/>
+    </row>
+    <row r="385" customHeight="1" spans="8:8">
+      <c r="H385" s="3"/>
+    </row>
+    <row r="386" customHeight="1" spans="8:8">
+      <c r="H386" s="3"/>
+    </row>
+    <row r="387" customHeight="1" spans="8:8">
+      <c r="H387" s="3"/>
+    </row>
+    <row r="388" customHeight="1" spans="8:8">
+      <c r="H388" s="3"/>
+    </row>
+    <row r="389" customHeight="1" spans="8:8">
+      <c r="H389" s="3"/>
+    </row>
+    <row r="390" customHeight="1" spans="8:8">
+      <c r="H390" s="3"/>
+    </row>
+    <row r="391" customHeight="1" spans="8:8">
+      <c r="H391" s="3"/>
+    </row>
+    <row r="392" customHeight="1" spans="8:8">
+      <c r="H392" s="3"/>
+    </row>
+    <row r="393" customHeight="1" spans="8:8">
+      <c r="H393" s="3"/>
+    </row>
+    <row r="394" customHeight="1" spans="8:8">
+      <c r="H394" s="3"/>
+    </row>
+    <row r="395" customHeight="1" spans="8:8">
+      <c r="H395" s="3"/>
+    </row>
+    <row r="396" customHeight="1" spans="8:8">
+      <c r="H396" s="3"/>
+    </row>
+    <row r="397" customHeight="1" spans="8:8">
+      <c r="H397" s="3"/>
+    </row>
+    <row r="398" customHeight="1" spans="8:8">
+      <c r="H398" s="3"/>
+    </row>
+    <row r="399" customHeight="1" spans="8:8">
+      <c r="H399" s="3"/>
+    </row>
+    <row r="400" customHeight="1" spans="8:8">
+      <c r="H400" s="3"/>
+    </row>
+    <row r="401" customHeight="1" spans="8:8">
+      <c r="H401" s="3"/>
+    </row>
+    <row r="402" customHeight="1" spans="8:8">
+      <c r="H402" s="3"/>
+    </row>
+    <row r="403" customHeight="1" spans="8:8">
+      <c r="H403" s="3"/>
+    </row>
+    <row r="404" customHeight="1" spans="8:8">
+      <c r="H404" s="3"/>
+    </row>
+    <row r="405" customHeight="1" spans="8:8">
+      <c r="H405" s="3"/>
+    </row>
+    <row r="406" customHeight="1" spans="8:8">
+      <c r="H406" s="3"/>
+    </row>
+    <row r="407" customHeight="1" spans="8:8">
+      <c r="H407" s="3"/>
+    </row>
+    <row r="408" customHeight="1" spans="8:8">
+      <c r="H408" s="3"/>
+    </row>
+    <row r="409" customHeight="1" spans="8:8">
+      <c r="H409" s="3"/>
+    </row>
+    <row r="410" customHeight="1" spans="8:8">
+      <c r="H410" s="3"/>
+    </row>
+    <row r="411" customHeight="1" spans="8:8">
+      <c r="H411" s="3"/>
+    </row>
+    <row r="412" customHeight="1" spans="8:8">
+      <c r="H412" s="3"/>
+    </row>
+    <row r="413" customHeight="1" spans="8:8">
+      <c r="H413" s="3"/>
+    </row>
+    <row r="414" customHeight="1" spans="8:8">
+      <c r="H414" s="3"/>
+    </row>
+    <row r="415" customHeight="1" spans="8:8">
+      <c r="H415" s="3"/>
+    </row>
+    <row r="416" customHeight="1" spans="8:8">
+      <c r="H416" s="3"/>
+    </row>
+    <row r="417" customHeight="1" spans="8:8">
+      <c r="H417" s="3"/>
+    </row>
+    <row r="418" customHeight="1" spans="8:8">
+      <c r="H418" s="3"/>
+    </row>
+    <row r="419" customHeight="1" spans="8:8">
+      <c r="H419" s="3"/>
+    </row>
+    <row r="420" customHeight="1" spans="8:8">
+      <c r="H420" s="3"/>
+    </row>
+    <row r="421" customHeight="1" spans="8:8">
+      <c r="H421" s="3"/>
+    </row>
+    <row r="422" customHeight="1" spans="8:8">
+      <c r="H422" s="3"/>
+    </row>
+    <row r="423" customHeight="1" spans="8:8">
+      <c r="H423" s="3"/>
+    </row>
+    <row r="424" customHeight="1" spans="8:8">
+      <c r="H424" s="3"/>
+    </row>
+    <row r="425" customHeight="1" spans="8:8">
+      <c r="H425" s="3"/>
+    </row>
+    <row r="426" customHeight="1" spans="8:8">
+      <c r="H426" s="3"/>
+    </row>
+    <row r="427" customHeight="1" spans="8:8">
+      <c r="H427" s="3"/>
+    </row>
+    <row r="428" customHeight="1" spans="8:8">
+      <c r="H428" s="3"/>
+    </row>
+    <row r="429" customHeight="1" spans="8:8">
+      <c r="H429" s="3"/>
+    </row>
+    <row r="430" customHeight="1" spans="8:8">
+      <c r="H430" s="3"/>
+    </row>
+    <row r="431" customHeight="1" spans="8:8">
+      <c r="H431" s="3"/>
+    </row>
+    <row r="432" customHeight="1" spans="8:8">
+      <c r="H432" s="3"/>
+    </row>
+    <row r="433" customHeight="1" spans="8:8">
+      <c r="H433" s="3"/>
+    </row>
+    <row r="434" customHeight="1" spans="8:8">
+      <c r="H434" s="3"/>
+    </row>
+    <row r="435" customHeight="1" spans="8:8">
+      <c r="H435" s="3"/>
+    </row>
+    <row r="436" customHeight="1" spans="8:8">
+      <c r="H436" s="3"/>
+    </row>
+    <row r="437" customHeight="1" spans="8:8">
+      <c r="H437" s="3"/>
+    </row>
+    <row r="438" customHeight="1" spans="8:8">
+      <c r="H438" s="3"/>
+    </row>
+    <row r="439" customHeight="1" spans="8:8">
+      <c r="H439" s="3"/>
+    </row>
+    <row r="440" customHeight="1" spans="8:8">
+      <c r="H440" s="3"/>
+    </row>
+    <row r="441" customHeight="1" spans="8:8">
+      <c r="H441" s="3"/>
+    </row>
+    <row r="442" customHeight="1" spans="8:8">
+      <c r="H442" s="3"/>
+    </row>
+    <row r="443" customHeight="1" spans="8:8">
+      <c r="H443" s="3"/>
+    </row>
+    <row r="444" customHeight="1" spans="8:8">
+      <c r="H444" s="3"/>
+    </row>
+    <row r="445" customHeight="1" spans="8:8">
+      <c r="H445" s="3"/>
+    </row>
+    <row r="446" customHeight="1" spans="8:8">
+      <c r="H446" s="3"/>
+    </row>
+    <row r="447" customHeight="1" spans="8:8">
+      <c r="H447" s="3"/>
+    </row>
+    <row r="448" customHeight="1" spans="8:8">
+      <c r="H448" s="3"/>
+    </row>
+    <row r="449" customHeight="1" spans="8:8">
+      <c r="H449" s="3"/>
+    </row>
+    <row r="450" customHeight="1" spans="8:8">
+      <c r="H450" s="3"/>
+    </row>
+    <row r="451" customHeight="1" spans="8:8">
+      <c r="H451" s="3"/>
+    </row>
+    <row r="452" customHeight="1" spans="8:8">
+      <c r="H452" s="3"/>
+    </row>
+    <row r="453" customHeight="1" spans="8:8">
+      <c r="H453" s="3"/>
+    </row>
+    <row r="454" customHeight="1" spans="8:8">
+      <c r="H454" s="3"/>
+    </row>
+    <row r="455" customHeight="1" spans="8:8">
+      <c r="H455" s="3"/>
+    </row>
+    <row r="456" customHeight="1" spans="8:8">
+      <c r="H456" s="3"/>
+    </row>
+    <row r="457" customHeight="1" spans="8:8">
+      <c r="H457" s="3"/>
+    </row>
+    <row r="458" customHeight="1" spans="8:8">
+      <c r="H458" s="3"/>
+    </row>
+    <row r="459" customHeight="1" spans="8:8">
+      <c r="H459" s="3"/>
+    </row>
+    <row r="460" customHeight="1" spans="8:8">
+      <c r="H460" s="3"/>
+    </row>
+    <row r="461" customHeight="1" spans="8:8">
+      <c r="H461" s="3"/>
+    </row>
+    <row r="462" customHeight="1" spans="8:8">
+      <c r="H462" s="3"/>
+    </row>
+    <row r="463" customHeight="1" spans="8:8">
+      <c r="H463" s="3"/>
+    </row>
+    <row r="464" customHeight="1" spans="8:8">
+      <c r="H464" s="3"/>
+    </row>
+    <row r="465" customHeight="1" spans="8:8">
+      <c r="H465" s="3"/>
+    </row>
+    <row r="466" customHeight="1" spans="8:8">
+      <c r="H466" s="3"/>
+    </row>
+    <row r="467" customHeight="1" spans="8:8">
+      <c r="H467" s="3"/>
+    </row>
+    <row r="468" customHeight="1" spans="8:8">
+      <c r="H468" s="3"/>
+    </row>
+    <row r="469" customHeight="1" spans="8:8">
+      <c r="H469" s="3"/>
+    </row>
+    <row r="470" customHeight="1" spans="8:8">
+      <c r="H470" s="3"/>
+    </row>
+    <row r="471" customHeight="1" spans="8:8">
+      <c r="H471" s="3"/>
+    </row>
+    <row r="472" customHeight="1" spans="8:8">
+      <c r="H472" s="3"/>
+    </row>
+    <row r="473" customHeight="1" spans="8:8">
+      <c r="H473" s="3"/>
+    </row>
+    <row r="474" customHeight="1" spans="8:8">
+      <c r="H474" s="3"/>
+    </row>
+    <row r="475" customHeight="1" spans="8:8">
+      <c r="H475" s="3"/>
+    </row>
+    <row r="476" customHeight="1" spans="8:8">
+      <c r="H476" s="3"/>
+    </row>
+    <row r="477" customHeight="1" spans="8:8">
+      <c r="H477" s="3"/>
+    </row>
+    <row r="478" customHeight="1" spans="8:8">
+      <c r="H478" s="3"/>
+    </row>
+    <row r="479" customHeight="1" spans="8:8">
+      <c r="H479" s="3"/>
+    </row>
+    <row r="480" customHeight="1" spans="8:8">
+      <c r="H480" s="3"/>
+    </row>
+    <row r="481" customHeight="1" spans="8:8">
+      <c r="H481" s="3"/>
+    </row>
+    <row r="482" customHeight="1" spans="8:8">
+      <c r="H482" s="3"/>
+    </row>
+    <row r="483" customHeight="1" spans="8:8">
+      <c r="H483" s="3"/>
+    </row>
+    <row r="484" customHeight="1" spans="8:8">
+      <c r="H484" s="3"/>
+    </row>
+    <row r="485" customHeight="1" spans="8:8">
+      <c r="H485" s="3"/>
+    </row>
+    <row r="486" customHeight="1" spans="8:8">
+      <c r="H486" s="3"/>
+    </row>
+    <row r="487" customHeight="1" spans="8:8">
+      <c r="H487" s="3"/>
+    </row>
+    <row r="488" customHeight="1" spans="8:8">
+      <c r="H488" s="3"/>
+    </row>
+    <row r="489" customHeight="1" spans="8:8">
+      <c r="H489" s="3"/>
+    </row>
+    <row r="490" customHeight="1" spans="8:8">
+      <c r="H490" s="3"/>
+    </row>
+    <row r="491" customHeight="1" spans="8:8">
+      <c r="H491" s="3"/>
+    </row>
+    <row r="492" customHeight="1" spans="8:8">
+      <c r="H492" s="3"/>
+    </row>
+    <row r="493" customHeight="1" spans="8:8">
+      <c r="H493" s="3"/>
+    </row>
+    <row r="494" customHeight="1" spans="8:8">
+      <c r="H494" s="3"/>
+    </row>
+    <row r="495" customHeight="1" spans="8:8">
+      <c r="H495" s="3"/>
+    </row>
+    <row r="496" customHeight="1" spans="8:8">
+      <c r="H496" s="3"/>
+    </row>
+    <row r="497" customHeight="1" spans="8:8">
+      <c r="H497" s="3"/>
+    </row>
+    <row r="498" customHeight="1" spans="8:8">
+      <c r="H498" s="3"/>
+    </row>
+    <row r="499" customHeight="1" spans="8:8">
+      <c r="H499" s="3"/>
+    </row>
+    <row r="500" customHeight="1" spans="8:8">
+      <c r="H500" s="3"/>
+    </row>
+    <row r="501" customHeight="1" spans="8:8">
+      <c r="H501" s="3"/>
+    </row>
+    <row r="502" customHeight="1" spans="8:8">
+      <c r="H502" s="3"/>
+    </row>
+    <row r="503" customHeight="1" spans="8:8">
+      <c r="H503" s="3"/>
+    </row>
+    <row r="504" customHeight="1" spans="8:8">
+      <c r="H504" s="3"/>
+    </row>
+    <row r="505" customHeight="1" spans="8:8">
+      <c r="H505" s="3"/>
+    </row>
+    <row r="506" customHeight="1" spans="8:8">
+      <c r="H506" s="3"/>
+    </row>
+    <row r="507" customHeight="1" spans="8:8">
+      <c r="H507" s="3"/>
+    </row>
+    <row r="508" customHeight="1" spans="8:8">
+      <c r="H508" s="3"/>
+    </row>
+    <row r="509" customHeight="1" spans="8:8">
+      <c r="H509" s="3"/>
+    </row>
+    <row r="510" customHeight="1" spans="8:8">
+      <c r="H510" s="3"/>
+    </row>
+    <row r="511" customHeight="1" spans="8:8">
+      <c r="H511" s="3"/>
+    </row>
+    <row r="512" customHeight="1" spans="8:8">
+      <c r="H512" s="3"/>
+    </row>
+    <row r="513" customHeight="1" spans="8:8">
+      <c r="H513" s="3"/>
+    </row>
+    <row r="514" customHeight="1" spans="8:8">
+      <c r="H514" s="3"/>
+    </row>
+    <row r="515" customHeight="1" spans="8:8">
+      <c r="H515" s="3"/>
+    </row>
+    <row r="516" customHeight="1" spans="8:8">
+      <c r="H516" s="3"/>
+    </row>
+    <row r="517" customHeight="1" spans="8:8">
+      <c r="H517" s="3"/>
+    </row>
+    <row r="518" customHeight="1" spans="8:8">
+      <c r="H518" s="3"/>
+    </row>
+    <row r="519" customHeight="1" spans="8:8">
+      <c r="H519" s="3"/>
+    </row>
+    <row r="520" customHeight="1" spans="8:8">
+      <c r="H520" s="3"/>
+    </row>
+    <row r="521" customHeight="1" spans="8:8">
+      <c r="H521" s="3"/>
+    </row>
+    <row r="522" customHeight="1" spans="8:8">
+      <c r="H522" s="3"/>
+    </row>
+    <row r="523" customHeight="1" spans="8:8">
+      <c r="H523" s="3"/>
+    </row>
+    <row r="524" customHeight="1" spans="8:8">
+      <c r="H524" s="3"/>
+    </row>
+    <row r="525" customHeight="1" spans="8:8">
+      <c r="H525" s="3"/>
+    </row>
+    <row r="526" customHeight="1" spans="8:8">
+      <c r="H526" s="3"/>
+    </row>
+    <row r="527" customHeight="1" spans="8:8">
+      <c r="H527" s="3"/>
+    </row>
+    <row r="528" customHeight="1" spans="8:8">
+      <c r="H528" s="3"/>
+    </row>
+    <row r="529" customHeight="1" spans="8:8">
+      <c r="H529" s="3"/>
+    </row>
+    <row r="530" customHeight="1" spans="8:8">
+      <c r="H530" s="3"/>
+    </row>
+    <row r="531" customHeight="1" spans="8:8">
+      <c r="H531" s="3"/>
+    </row>
+    <row r="532" customHeight="1" spans="8:8">
+      <c r="H532" s="3"/>
+    </row>
+    <row r="533" customHeight="1" spans="8:8">
+      <c r="H533" s="3"/>
+    </row>
+    <row r="534" customHeight="1" spans="8:8">
+      <c r="H534" s="3"/>
+    </row>
+    <row r="535" customHeight="1" spans="8:8">
+      <c r="H535" s="3"/>
+    </row>
+    <row r="536" customHeight="1" spans="8:8">
+      <c r="H536" s="3"/>
+    </row>
+    <row r="537" customHeight="1" spans="8:8">
+      <c r="H537" s="3"/>
+    </row>
+    <row r="538" customHeight="1" spans="8:8">
+      <c r="H538" s="3"/>
+    </row>
+    <row r="539" customHeight="1" spans="8:8">
+      <c r="H539" s="3"/>
+    </row>
+    <row r="540" customHeight="1" spans="8:8">
+      <c r="H540" s="3"/>
+    </row>
+    <row r="541" customHeight="1" spans="8:8">
+      <c r="H541" s="3"/>
+    </row>
+    <row r="542" customHeight="1" spans="8:8">
+      <c r="H542" s="3"/>
+    </row>
+    <row r="543" customHeight="1" spans="8:8">
+      <c r="H543" s="3"/>
+    </row>
+    <row r="544" customHeight="1" spans="8:8">
+      <c r="H544" s="3"/>
+    </row>
+    <row r="545" customHeight="1" spans="8:8">
+      <c r="H545" s="3"/>
+    </row>
+    <row r="546" customHeight="1" spans="8:8">
+      <c r="H546" s="3"/>
+    </row>
+    <row r="547" customHeight="1" spans="8:8">
+      <c r="H547" s="3"/>
+    </row>
+    <row r="548" customHeight="1" spans="8:8">
+      <c r="H548" s="3"/>
+    </row>
+    <row r="549" customHeight="1" spans="8:8">
+      <c r="H549" s="3"/>
+    </row>
+    <row r="550" customHeight="1" spans="8:8">
+      <c r="H550" s="3"/>
+    </row>
+    <row r="551" customHeight="1" spans="8:8">
+      <c r="H551" s="3"/>
+    </row>
+    <row r="552" customHeight="1" spans="8:8">
+      <c r="H552" s="3"/>
+    </row>
+    <row r="553" customHeight="1" spans="8:8">
+      <c r="H553" s="3"/>
+    </row>
+    <row r="554" customHeight="1" spans="8:8">
+      <c r="H554" s="3"/>
+    </row>
+    <row r="555" customHeight="1" spans="8:8">
+      <c r="H555" s="3"/>
+    </row>
+    <row r="556" customHeight="1" spans="8:8">
+      <c r="H556" s="3"/>
+    </row>
+    <row r="557" customHeight="1" spans="8:8">
+      <c r="H557" s="3"/>
+    </row>
+    <row r="558" customHeight="1" spans="8:8">
+      <c r="H558" s="3"/>
+    </row>
+    <row r="559" customHeight="1" spans="8:8">
+      <c r="H559" s="3"/>
+    </row>
+    <row r="560" customHeight="1" spans="8:8">
+      <c r="H560" s="3"/>
+    </row>
+    <row r="561" customHeight="1" spans="8:8">
+      <c r="H561" s="3"/>
+    </row>
+    <row r="562" customHeight="1" spans="8:8">
+      <c r="H562" s="3"/>
+    </row>
+    <row r="563" customHeight="1" spans="8:8">
+      <c r="H563" s="3"/>
+    </row>
+    <row r="564" customHeight="1" spans="8:8">
+      <c r="H564" s="3"/>
+    </row>
+    <row r="565" customHeight="1" spans="8:8">
+      <c r="H565" s="3"/>
+    </row>
+    <row r="566" customHeight="1" spans="8:8">
+      <c r="H566" s="3"/>
+    </row>
+    <row r="567" customHeight="1" spans="8:8">
+      <c r="H567" s="3"/>
+    </row>
+    <row r="568" customHeight="1" spans="8:8">
+      <c r="H568" s="3"/>
+    </row>
+    <row r="569" customHeight="1" spans="8:8">
+      <c r="H569" s="3"/>
+    </row>
+    <row r="570" customHeight="1" spans="8:8">
+      <c r="H570" s="3"/>
+    </row>
+    <row r="571" customHeight="1" spans="8:8">
+      <c r="H571" s="3"/>
+    </row>
+    <row r="572" customHeight="1" spans="8:8">
+      <c r="H572" s="3"/>
+    </row>
+    <row r="573" customHeight="1" spans="8:8">
+      <c r="H573" s="3"/>
+    </row>
+    <row r="574" customHeight="1" spans="8:8">
+      <c r="H574" s="3"/>
+    </row>
+    <row r="575" customHeight="1" spans="8:8">
+      <c r="H575" s="3"/>
+    </row>
+    <row r="576" customHeight="1" spans="8:8">
+      <c r="H576" s="3"/>
+    </row>
+    <row r="577" customHeight="1" spans="8:8">
+      <c r="H577" s="3"/>
+    </row>
+    <row r="578" customHeight="1" spans="8:8">
+      <c r="H578" s="3"/>
+    </row>
+    <row r="579" customHeight="1" spans="8:8">
+      <c r="H579" s="3"/>
+    </row>
+    <row r="580" customHeight="1" spans="8:8">
+      <c r="H580" s="3"/>
+    </row>
+    <row r="581" customHeight="1" spans="8:8">
+      <c r="H581" s="3"/>
+    </row>
+    <row r="582" customHeight="1" spans="8:8">
+      <c r="H582" s="3"/>
+    </row>
+    <row r="583" customHeight="1" spans="8:8">
+      <c r="H583" s="3"/>
+    </row>
+    <row r="584" customHeight="1" spans="8:8">
+      <c r="H584" s="3"/>
+    </row>
+    <row r="585" customHeight="1" spans="8:8">
+      <c r="H585" s="3"/>
+    </row>
+    <row r="586" customHeight="1" spans="8:8">
+      <c r="H586" s="3"/>
+    </row>
+    <row r="587" customHeight="1" spans="8:8">
+      <c r="H587" s="3"/>
+    </row>
+    <row r="588" customHeight="1" spans="8:8">
+      <c r="H588" s="3"/>
+    </row>
+    <row r="589" customHeight="1" spans="8:8">
+      <c r="H589" s="3"/>
+    </row>
+    <row r="590" customHeight="1" spans="8:8">
+      <c r="H590" s="3"/>
+    </row>
+    <row r="591" customHeight="1" spans="8:8">
+      <c r="H591" s="3"/>
+    </row>
+    <row r="592" customHeight="1" spans="8:8">
+      <c r="H592" s="3"/>
+    </row>
+    <row r="593" customHeight="1" spans="8:8">
+      <c r="H593" s="3"/>
+    </row>
+    <row r="594" customHeight="1" spans="8:8">
+      <c r="H594" s="3"/>
+    </row>
+    <row r="595" customHeight="1" spans="8:8">
+      <c r="H595" s="3"/>
+    </row>
+    <row r="596" customHeight="1" spans="8:8">
+      <c r="H596" s="3"/>
+    </row>
+    <row r="597" customHeight="1" spans="8:8">
+      <c r="H597" s="3"/>
+    </row>
+    <row r="598" customHeight="1" spans="8:8">
+      <c r="H598" s="3"/>
+    </row>
+    <row r="599" customHeight="1" spans="8:8">
+      <c r="H599" s="3"/>
+    </row>
+    <row r="600" customHeight="1" spans="8:8">
+      <c r="H600" s="3"/>
+    </row>
+    <row r="601" customHeight="1" spans="8:8">
+      <c r="H601" s="3"/>
+    </row>
+    <row r="602" customHeight="1" spans="8:8">
+      <c r="H602" s="3"/>
+    </row>
+    <row r="603" customHeight="1" spans="8:8">
+      <c r="H603" s="3"/>
+    </row>
+    <row r="604" customHeight="1" spans="8:8">
+      <c r="H604" s="3"/>
+    </row>
+    <row r="605" customHeight="1" spans="8:8">
+      <c r="H605" s="3"/>
+    </row>
+    <row r="606" customHeight="1" spans="8:8">
+      <c r="H606" s="3"/>
+    </row>
+    <row r="607" customHeight="1" spans="8:8">
+      <c r="H607" s="3"/>
+    </row>
+    <row r="608" customHeight="1" spans="8:8">
+      <c r="H608" s="3"/>
+    </row>
+    <row r="609" customHeight="1" spans="8:8">
+      <c r="H609" s="3"/>
+    </row>
+    <row r="610" customHeight="1" spans="8:8">
+      <c r="H610" s="3"/>
+    </row>
+    <row r="611" customHeight="1" spans="8:8">
+      <c r="H611" s="3"/>
+    </row>
+    <row r="612" customHeight="1" spans="8:8">
+      <c r="H612" s="3"/>
+    </row>
+    <row r="613" customHeight="1" spans="8:8">
+      <c r="H613" s="3"/>
+    </row>
+    <row r="614" customHeight="1" spans="8:8">
+      <c r="H614" s="3"/>
+    </row>
+    <row r="615" customHeight="1" spans="8:8">
+      <c r="H615" s="3"/>
+    </row>
+    <row r="616" customHeight="1" spans="8:8">
+      <c r="H616" s="3"/>
+    </row>
+    <row r="617" customHeight="1" spans="8:8">
+      <c r="H617" s="3"/>
+    </row>
+    <row r="618" customHeight="1" spans="8:8">
+      <c r="H618" s="3"/>
+    </row>
+    <row r="619" customHeight="1" spans="8:8">
+      <c r="H619" s="3"/>
+    </row>
+    <row r="620" customHeight="1" spans="8:8">
+      <c r="H620" s="3"/>
+    </row>
+    <row r="621" customHeight="1" spans="8:8">
+      <c r="H621" s="3"/>
+    </row>
+    <row r="622" customHeight="1" spans="8:8">
+      <c r="H622" s="3"/>
+    </row>
+    <row r="623" customHeight="1" spans="8:8">
+      <c r="H623" s="3"/>
+    </row>
+    <row r="624" customHeight="1" spans="8:8">
+      <c r="H624" s="3"/>
+    </row>
+    <row r="625" customHeight="1" spans="8:8">
+      <c r="H625" s="3"/>
+    </row>
+    <row r="626" customHeight="1" spans="8:8">
+      <c r="H626" s="3"/>
+    </row>
+    <row r="627" customHeight="1" spans="8:8">
+      <c r="H627" s="3"/>
+    </row>
+    <row r="628" customHeight="1" spans="8:8">
+      <c r="H628" s="3"/>
+    </row>
+    <row r="629" customHeight="1" spans="8:8">
+      <c r="H629" s="3"/>
+    </row>
+    <row r="630" customHeight="1" spans="8:8">
+      <c r="H630" s="3"/>
+    </row>
+    <row r="631" customHeight="1" spans="8:8">
+      <c r="H631" s="3"/>
+    </row>
+    <row r="632" customHeight="1" spans="8:8">
+      <c r="H632" s="3"/>
+    </row>
+    <row r="633" customHeight="1" spans="8:8">
+      <c r="H633" s="3"/>
+    </row>
+    <row r="634" customHeight="1" spans="8:8">
+      <c r="H634" s="3"/>
+    </row>
+    <row r="635" customHeight="1" spans="8:8">
+      <c r="H635" s="3"/>
+    </row>
+    <row r="636" customHeight="1" spans="8:8">
+      <c r="H636" s="3"/>
+    </row>
+    <row r="637" customHeight="1" spans="8:8">
+      <c r="H637" s="3"/>
+    </row>
+    <row r="638" customHeight="1" spans="8:8">
+      <c r="H638" s="3"/>
+    </row>
+    <row r="639" customHeight="1" spans="8:8">
+      <c r="H639" s="3"/>
+    </row>
+    <row r="640" customHeight="1" spans="8:8">
+      <c r="H640" s="3"/>
+    </row>
+    <row r="641" customHeight="1" spans="8:8">
+      <c r="H641" s="3"/>
+    </row>
+    <row r="642" customHeight="1" spans="8:8">
+      <c r="H642" s="3"/>
+    </row>
+    <row r="643" customHeight="1" spans="8:8">
+      <c r="H643" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H953"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10:M222"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="5.13333333333333" customWidth="1"/>
+    <col min="3" max="3" width="38.3809523809524" customWidth="1"/>
+    <col min="4" max="4" width="5.13333333333333" customWidth="1"/>
+    <col min="5" max="5" width="25.3809523809524" customWidth="1"/>
+    <col min="6" max="6" width="5.13333333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.6285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5">
+        <v>488132300</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="4"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="4"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="4"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="4"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="4"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="4"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="4"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="4"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="4"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="4"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="4"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="4"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" customHeight="1" spans="1:8">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31">
+      <c r="G30" s="5"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:8">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32">
+      <c r="G31" s="5"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:8">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33">
+      <c r="G32" s="5"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34">
+      <c r="G33" s="5"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:8">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:8">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:8">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:8">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:8">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:8">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:8">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:8">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
+      <c r="E59" s="5"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="5"/>
-    </row>
-    <row r="71">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
+      <c r="E74" s="5"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:8">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:8">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
+      <c r="E77" s="5"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78">
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:8">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79">
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:8">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:8">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:8">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:8">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83">
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:8">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84">
+      <c r="G83" s="5"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:8">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:8">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
-      <c r="H85" s="5"/>
-    </row>
-    <row r="86">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:8">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="87">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:8">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:8">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:8">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="5"/>
-    </row>
-    <row r="90">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:8">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91">
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:8">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
-      <c r="H91" s="5"/>
-    </row>
-    <row r="92">
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:8">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93">
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:8">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
+      <c r="E93" s="5"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94">
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" customHeight="1" spans="5:8">
+      <c r="E94" s="5"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" customHeight="1" spans="5:8">
+      <c r="E95" s="5"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" customHeight="1" spans="5:8">
+      <c r="E96" s="5"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" customHeight="1" spans="5:8">
+      <c r="E97" s="5"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" customHeight="1" spans="5:8">
+      <c r="E98" s="5"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" customHeight="1" spans="5:8">
+      <c r="E99" s="5"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" customHeight="1" spans="5:8">
+      <c r="E100" s="5"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" customHeight="1" spans="5:8">
+      <c r="E101" s="5"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" customHeight="1" spans="5:8">
+      <c r="E102" s="5"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" customHeight="1" spans="5:8">
+      <c r="E103" s="5"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" customHeight="1" spans="5:8">
+      <c r="E104" s="5"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" customHeight="1" spans="5:8">
+      <c r="E105" s="5"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" customHeight="1" spans="5:8">
+      <c r="E106" s="5"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" customHeight="1" spans="5:8">
+      <c r="E107" s="5"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" customHeight="1" spans="5:8">
+      <c r="E108" s="5"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" customHeight="1" spans="5:8">
+      <c r="E109" s="5"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" customHeight="1" spans="5:8">
+      <c r="E110" s="5"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" customHeight="1" spans="5:8">
+      <c r="E111" s="5"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" customHeight="1" spans="5:8">
+      <c r="E112" s="5"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" customHeight="1" spans="5:8">
+      <c r="E113" s="5"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" customHeight="1" spans="5:8">
+      <c r="E114" s="5"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" customHeight="1" spans="5:8">
+      <c r="E115" s="5"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" customHeight="1" spans="5:8">
+      <c r="E116" s="5"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" customHeight="1" spans="5:8">
+      <c r="E117" s="5"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" customHeight="1" spans="5:8">
+      <c r="E118" s="5"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" customHeight="1" spans="5:8">
+      <c r="E119" s="5"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" customHeight="1" spans="5:8">
+      <c r="E120" s="5"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" customHeight="1" spans="5:8">
+      <c r="E121" s="5"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" customHeight="1" spans="5:8">
+      <c r="E122" s="5"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" customHeight="1" spans="5:8">
+      <c r="E123" s="5"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" customHeight="1" spans="5:8">
+      <c r="E124" s="5"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" customHeight="1" spans="5:8">
+      <c r="E125" s="5"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" customHeight="1" spans="5:8">
+      <c r="E126" s="5"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" customHeight="1" spans="5:8">
+      <c r="E127" s="5"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" customHeight="1" spans="5:8">
+      <c r="E128" s="5"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" customHeight="1" spans="5:8">
+      <c r="E129" s="5"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" customHeight="1" spans="5:8">
+      <c r="E130" s="5"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" customHeight="1" spans="5:8">
+      <c r="E131" s="5"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" customHeight="1" spans="8:8">
       <c r="H132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" customHeight="1" spans="5:8">
+      <c r="E133" s="5"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" customHeight="1" spans="5:8">
+      <c r="E134" s="5"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" customHeight="1" spans="5:8">
+      <c r="E135" s="5"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" customHeight="1" spans="5:8">
+      <c r="E136" s="5"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" customHeight="1" spans="5:8">
+      <c r="E137" s="5"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" customHeight="1" spans="5:8">
+      <c r="E138" s="5"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" customHeight="1" spans="5:8">
+      <c r="E139" s="5"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" customHeight="1" spans="5:8">
+      <c r="E140" s="5"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" customHeight="1" spans="5:8">
+      <c r="E141" s="5"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" customHeight="1" spans="5:8">
+      <c r="E142" s="5"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" customHeight="1" spans="5:8">
+      <c r="E143" s="5"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" customHeight="1" spans="5:8">
+      <c r="E144" s="5"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" customHeight="1" spans="5:8">
+      <c r="E145" s="5"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" customHeight="1" spans="5:8">
+      <c r="E146" s="5"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" customHeight="1" spans="5:8">
+      <c r="E147" s="5"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" customHeight="1" spans="5:8">
+      <c r="E148" s="5"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" customHeight="1" spans="5:8">
+      <c r="E149" s="5"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" customHeight="1" spans="5:8">
+      <c r="E150" s="5"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" customHeight="1" spans="5:8">
+      <c r="E151" s="5"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" customHeight="1" spans="5:8">
+      <c r="E152" s="5"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" customHeight="1" spans="5:8">
+      <c r="E153" s="5"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" customHeight="1" spans="5:8">
+      <c r="E154" s="5"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" customHeight="1" spans="5:8">
+      <c r="E155" s="5"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" customHeight="1" spans="5:8">
+      <c r="E156" s="5"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" customHeight="1" spans="5:8">
+      <c r="E157" s="5"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" customHeight="1" spans="5:8">
+      <c r="E158" s="5"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" customHeight="1" spans="5:8">
+      <c r="E159" s="5"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" customHeight="1" spans="5:8">
+      <c r="E160" s="5"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" customHeight="1" spans="5:8">
+      <c r="E161" s="5"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" customHeight="1" spans="5:8">
+      <c r="E162" s="5"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" customHeight="1" spans="5:8">
+      <c r="E163" s="5"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" customHeight="1" spans="5:8">
+      <c r="E164" s="5"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" customHeight="1" spans="5:8">
+      <c r="E165" s="5"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" customHeight="1" spans="5:8">
+      <c r="E166" s="5"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" customHeight="1" spans="5:8">
+      <c r="E167" s="5"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" customHeight="1" spans="5:8">
+      <c r="E168" s="5"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" customHeight="1" spans="5:8">
+      <c r="E169" s="5"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" customHeight="1" spans="8:8">
       <c r="H170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" customHeight="1" spans="5:8">
+      <c r="E171" s="5"/>
+      <c r="G171" s="5"/>
       <c r="H171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" customHeight="1" spans="5:8">
+      <c r="E172" s="5"/>
       <c r="H172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" customHeight="1" spans="5:8">
+      <c r="E173" s="5"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" customHeight="1" spans="5:8">
+      <c r="E174" s="5"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" customHeight="1" spans="5:8">
+      <c r="E175" s="5"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" customHeight="1" spans="5:8">
+      <c r="E176" s="5"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" customHeight="1" spans="5:8">
+      <c r="E177" s="5"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" customHeight="1" spans="5:8">
+      <c r="E178" s="5"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" customHeight="1" spans="5:8">
+      <c r="E179" s="5"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" customHeight="1" spans="5:8">
+      <c r="E180" s="5"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" customHeight="1" spans="5:8">
+      <c r="E181" s="5"/>
       <c r="H181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" customHeight="1" spans="5:8">
+      <c r="E182" s="5"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" customHeight="1" spans="5:8">
+      <c r="E183" s="5"/>
       <c r="H183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" customHeight="1" spans="5:8">
+      <c r="E184" s="5"/>
       <c r="H184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" customHeight="1" spans="5:8">
+      <c r="E185" s="5"/>
       <c r="H185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" customHeight="1" spans="5:8">
+      <c r="E186" s="5"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" customHeight="1" spans="5:8">
+      <c r="E187" s="5"/>
       <c r="H187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" customHeight="1" spans="5:8">
+      <c r="E188" s="5"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" customHeight="1" spans="5:8">
+      <c r="E189" s="5"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" customHeight="1" spans="5:8">
+      <c r="E190" s="5"/>
       <c r="H190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" customHeight="1" spans="5:8">
+      <c r="E191" s="5"/>
       <c r="H191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" customHeight="1" spans="5:8">
+      <c r="E192" s="5"/>
       <c r="H192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" customHeight="1" spans="5:8">
+      <c r="E193" s="5"/>
       <c r="H193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" customHeight="1" spans="5:8">
+      <c r="E194" s="5"/>
       <c r="H194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" customHeight="1" spans="5:8">
+      <c r="E195" s="5"/>
       <c r="H195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" customHeight="1" spans="5:8">
+      <c r="E196" s="5"/>
       <c r="H196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" customHeight="1" spans="5:8">
+      <c r="E197" s="5"/>
       <c r="H197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" customHeight="1" spans="5:8">
+      <c r="E198" s="5"/>
       <c r="H198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" customHeight="1" spans="5:8">
+      <c r="E199" s="5"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" customHeight="1" spans="5:8">
+      <c r="E200" s="5"/>
       <c r="H200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" customHeight="1" spans="5:8">
+      <c r="E201" s="5"/>
       <c r="H201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" customHeight="1" spans="5:8">
+      <c r="E202" s="5"/>
       <c r="H202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" customHeight="1" spans="5:8">
+      <c r="E203" s="5"/>
       <c r="H203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" customHeight="1" spans="5:8">
+      <c r="E204" s="5"/>
       <c r="H204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" customHeight="1" spans="5:8">
+      <c r="E205" s="5"/>
       <c r="H205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" customHeight="1" spans="5:8">
+      <c r="E206" s="5"/>
       <c r="H206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" customHeight="1" spans="5:8">
+      <c r="E207" s="5"/>
       <c r="H207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" customHeight="1" spans="5:8">
+      <c r="E208" s="5"/>
       <c r="H208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" customHeight="1" spans="5:8">
+      <c r="E209" s="5"/>
       <c r="H209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" customHeight="1" spans="5:8">
+      <c r="E210" s="5"/>
       <c r="H210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" customHeight="1" spans="5:8">
+      <c r="E211" s="5"/>
       <c r="H211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" customHeight="1" spans="5:8">
+      <c r="E212" s="5"/>
       <c r="H212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" customHeight="1" spans="5:8">
+      <c r="E213" s="5"/>
       <c r="H213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" customHeight="1" spans="5:8">
+      <c r="E214" s="5"/>
       <c r="H214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" customHeight="1" spans="5:8">
+      <c r="E215" s="5"/>
       <c r="H215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" customHeight="1" spans="5:8">
+      <c r="E216" s="5"/>
       <c r="H216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" customHeight="1" spans="5:8">
+      <c r="E217" s="5"/>
       <c r="H217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" customHeight="1" spans="5:8">
+      <c r="E218" s="5"/>
       <c r="H218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" customHeight="1" spans="5:8">
+      <c r="E219" s="5"/>
       <c r="H219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" customHeight="1" spans="5:8">
+      <c r="E220" s="5"/>
       <c r="H220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" customHeight="1" spans="8:8">
       <c r="H221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" customHeight="1" spans="8:8">
       <c r="H222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" customHeight="1" spans="8:8">
       <c r="H223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" customHeight="1" spans="8:8">
       <c r="H224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" customHeight="1" spans="8:8">
       <c r="H225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" customHeight="1" spans="8:8">
       <c r="H226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" customHeight="1" spans="8:8">
       <c r="H227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" customHeight="1" spans="8:8">
       <c r="H228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" customHeight="1" spans="8:8">
       <c r="H229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" customHeight="1" spans="8:8">
       <c r="H230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" customHeight="1" spans="8:8">
       <c r="H231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" customHeight="1" spans="8:8">
       <c r="H232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" customHeight="1" spans="8:8">
       <c r="H233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" customHeight="1" spans="8:8">
       <c r="H234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" customHeight="1" spans="8:8">
       <c r="H235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" customHeight="1" spans="8:8">
       <c r="H236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" customHeight="1" spans="8:8">
       <c r="H237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" customHeight="1" spans="8:8">
       <c r="H238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" customHeight="1" spans="8:8">
       <c r="H239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" customHeight="1" spans="8:8">
       <c r="H240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" customHeight="1" spans="8:8">
       <c r="H241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" customHeight="1" spans="8:8">
       <c r="H242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" customHeight="1" spans="8:8">
       <c r="H243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" customHeight="1" spans="8:8">
       <c r="H244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" customHeight="1" spans="8:8">
       <c r="H245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" customHeight="1" spans="8:8">
       <c r="H246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" customHeight="1" spans="8:8">
       <c r="H247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" customHeight="1" spans="8:8">
       <c r="H248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" customHeight="1" spans="8:8">
       <c r="H249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" customHeight="1" spans="8:8">
       <c r="H250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" customHeight="1" spans="8:8">
       <c r="H251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" customHeight="1" spans="8:8">
       <c r="H252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" customHeight="1" spans="8:8">
       <c r="H253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" customHeight="1" spans="8:8">
       <c r="H254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" customHeight="1" spans="8:8">
       <c r="H255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" customHeight="1" spans="8:8">
       <c r="H256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" customHeight="1" spans="8:8">
       <c r="H257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" customHeight="1" spans="8:8">
       <c r="H258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" customHeight="1" spans="8:8">
       <c r="H259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" customHeight="1" spans="8:8">
       <c r="H260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" customHeight="1" spans="8:8">
       <c r="H261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" customHeight="1" spans="8:8">
       <c r="H262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" customHeight="1" spans="8:8">
       <c r="H263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" customHeight="1" spans="8:8">
       <c r="H264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" customHeight="1" spans="8:8">
       <c r="H265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" customHeight="1" spans="8:8">
       <c r="H266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" customHeight="1" spans="8:8">
       <c r="H267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" customHeight="1" spans="8:8">
       <c r="H268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" customHeight="1" spans="8:8">
       <c r="H269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" customHeight="1" spans="8:8">
       <c r="H270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" customHeight="1" spans="8:8">
       <c r="H271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" customHeight="1" spans="8:8">
       <c r="H272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" customHeight="1" spans="8:8">
       <c r="H273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" customHeight="1" spans="8:8">
       <c r="H274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" customHeight="1" spans="8:8">
       <c r="H275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" customHeight="1" spans="8:8">
       <c r="H276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" customHeight="1" spans="8:8">
       <c r="H277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" customHeight="1" spans="8:8">
       <c r="H278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" customHeight="1" spans="8:8">
       <c r="H279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" customHeight="1" spans="8:8">
       <c r="H280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" customHeight="1" spans="8:8">
       <c r="H281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" customHeight="1" spans="8:8">
       <c r="H282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" customHeight="1" spans="8:8">
       <c r="H283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" customHeight="1" spans="8:8">
       <c r="H284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" customHeight="1" spans="8:8">
       <c r="H285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" customHeight="1" spans="8:8">
       <c r="H286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" customHeight="1" spans="8:8">
       <c r="H287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" customHeight="1" spans="8:8">
       <c r="H288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" customHeight="1" spans="8:8">
       <c r="H289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" customHeight="1" spans="8:8">
       <c r="H290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" customHeight="1" spans="8:8">
       <c r="H291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" customHeight="1" spans="8:8">
       <c r="H292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" customHeight="1" spans="8:8">
       <c r="H293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" customHeight="1" spans="8:8">
       <c r="H294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" customHeight="1" spans="8:8">
       <c r="H295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" customHeight="1" spans="8:8">
       <c r="H296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" customHeight="1" spans="8:8">
       <c r="H297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" customHeight="1" spans="8:8">
       <c r="H298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" customHeight="1" spans="8:8">
       <c r="H299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" customHeight="1" spans="8:8">
       <c r="H300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" customHeight="1" spans="8:8">
       <c r="H301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" customHeight="1" spans="8:8">
       <c r="H302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" customHeight="1" spans="8:8">
       <c r="H303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" customHeight="1" spans="8:8">
       <c r="H304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" customHeight="1" spans="8:8">
       <c r="H305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" customHeight="1" spans="8:8">
       <c r="H306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" customHeight="1" spans="8:8">
       <c r="H307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" customHeight="1" spans="8:8">
       <c r="H308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" customHeight="1" spans="8:8">
       <c r="H309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" customHeight="1" spans="8:8">
       <c r="H310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" customHeight="1" spans="8:8">
       <c r="H311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" customHeight="1" spans="8:8">
       <c r="H312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" customHeight="1" spans="8:8">
       <c r="H313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" customHeight="1" spans="8:8">
       <c r="H314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" customHeight="1" spans="8:8">
       <c r="H315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" customHeight="1" spans="8:8">
       <c r="H316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" customHeight="1" spans="8:8">
       <c r="H317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" customHeight="1" spans="8:8">
       <c r="H318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" customHeight="1" spans="8:8">
       <c r="H319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" customHeight="1" spans="8:8">
       <c r="H320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" customHeight="1" spans="8:8">
       <c r="H321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" customHeight="1" spans="8:8">
       <c r="H322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" customHeight="1" spans="8:8">
       <c r="H323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" customHeight="1" spans="8:8">
       <c r="H324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" customHeight="1" spans="8:8">
       <c r="H325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" customHeight="1" spans="8:8">
       <c r="H326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" customHeight="1" spans="8:8">
       <c r="H327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" customHeight="1" spans="8:8">
       <c r="H328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" customHeight="1" spans="8:8">
       <c r="H329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" customHeight="1" spans="8:8">
       <c r="H330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" customHeight="1" spans="8:8">
       <c r="H331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" customHeight="1" spans="8:8">
       <c r="H332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" customHeight="1" spans="8:8">
       <c r="H333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" customHeight="1" spans="8:8">
       <c r="H334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" customHeight="1" spans="8:8">
       <c r="H335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" customHeight="1" spans="8:8">
       <c r="H336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" customHeight="1" spans="8:8">
       <c r="H337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" customHeight="1" spans="8:8">
       <c r="H338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" customHeight="1" spans="8:8">
       <c r="H339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" customHeight="1" spans="8:8">
       <c r="H340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" customHeight="1" spans="8:8">
       <c r="H341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" customHeight="1" spans="8:8">
       <c r="H342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" customHeight="1" spans="8:8">
       <c r="H343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" customHeight="1" spans="8:8">
       <c r="H344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" customHeight="1" spans="8:8">
       <c r="H345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" customHeight="1" spans="8:8">
       <c r="H346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" customHeight="1" spans="8:8">
       <c r="H347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" customHeight="1" spans="8:8">
       <c r="H348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" customHeight="1" spans="8:8">
       <c r="H349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" customHeight="1" spans="8:8">
       <c r="H350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" customHeight="1" spans="8:8">
       <c r="H351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" customHeight="1" spans="8:8">
       <c r="H352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" customHeight="1" spans="8:8">
       <c r="H353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" customHeight="1" spans="8:8">
       <c r="H354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" customHeight="1" spans="8:8">
       <c r="H355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" customHeight="1" spans="8:8">
       <c r="H356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" customHeight="1" spans="8:8">
       <c r="H357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" customHeight="1" spans="8:8">
       <c r="H358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" customHeight="1" spans="8:8">
       <c r="H359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" customHeight="1" spans="8:8">
       <c r="H360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" customHeight="1" spans="8:8">
       <c r="H361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" customHeight="1" spans="8:8">
       <c r="H362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" customHeight="1" spans="8:8">
       <c r="H363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" customHeight="1" spans="8:8">
       <c r="H364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" customHeight="1" spans="8:8">
       <c r="H365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" customHeight="1" spans="8:8">
       <c r="H366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" customHeight="1" spans="8:8">
       <c r="H367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" customHeight="1" spans="8:8">
       <c r="H368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" customHeight="1" spans="8:8">
       <c r="H369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" customHeight="1" spans="8:8">
       <c r="H370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" customHeight="1" spans="8:8">
       <c r="H371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" customHeight="1" spans="8:8">
       <c r="H372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" customHeight="1" spans="8:8">
       <c r="H373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" customHeight="1" spans="8:8">
       <c r="H374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" customHeight="1" spans="8:8">
       <c r="H375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" customHeight="1" spans="8:8">
       <c r="H376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" customHeight="1" spans="8:8">
       <c r="H377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" customHeight="1" spans="8:8">
       <c r="H378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" customHeight="1" spans="8:8">
       <c r="H379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" customHeight="1" spans="8:8">
       <c r="H380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" customHeight="1" spans="8:8">
       <c r="H381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" customHeight="1" spans="8:8">
       <c r="H382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" customHeight="1" spans="8:8">
       <c r="H383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" customHeight="1" spans="8:8">
       <c r="H384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" customHeight="1" spans="8:8">
       <c r="H385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" customHeight="1" spans="8:8">
       <c r="H386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" customHeight="1" spans="8:8">
       <c r="H387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" customHeight="1" spans="8:8">
       <c r="H388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" customHeight="1" spans="8:8">
       <c r="H389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" customHeight="1" spans="8:8">
       <c r="H390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" customHeight="1" spans="8:8">
       <c r="H391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" customHeight="1" spans="8:8">
       <c r="H392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" customHeight="1" spans="8:8">
       <c r="H393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" customHeight="1" spans="8:8">
       <c r="H394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" customHeight="1" spans="8:8">
       <c r="H395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" customHeight="1" spans="8:8">
       <c r="H396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" customHeight="1" spans="8:8">
       <c r="H397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" customHeight="1" spans="8:8">
       <c r="H398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" customHeight="1" spans="8:8">
       <c r="H399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" customHeight="1" spans="8:8">
       <c r="H400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" customHeight="1" spans="8:8">
       <c r="H401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" customHeight="1" spans="8:8">
       <c r="H402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" customHeight="1" spans="8:8">
       <c r="H403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" customHeight="1" spans="8:8">
       <c r="H404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" customHeight="1" spans="8:8">
       <c r="H405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" customHeight="1" spans="8:8">
       <c r="H406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" customHeight="1" spans="8:8">
       <c r="H407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" customHeight="1" spans="8:8">
       <c r="H408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" customHeight="1" spans="8:8">
       <c r="H409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" customHeight="1" spans="8:8">
       <c r="H410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" customHeight="1" spans="8:8">
       <c r="H411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" customHeight="1" spans="8:8">
       <c r="H412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" customHeight="1" spans="8:8">
       <c r="H413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" customHeight="1" spans="8:8">
       <c r="H414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" customHeight="1" spans="8:8">
       <c r="H415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" customHeight="1" spans="8:8">
       <c r="H416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" customHeight="1" spans="8:8">
       <c r="H417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" customHeight="1" spans="8:8">
       <c r="H418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" customHeight="1" spans="8:8">
       <c r="H419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" customHeight="1" spans="8:8">
       <c r="H420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" customHeight="1" spans="8:8">
       <c r="H421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" customHeight="1" spans="8:8">
       <c r="H422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" customHeight="1" spans="8:8">
       <c r="H423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" customHeight="1" spans="8:8">
       <c r="H424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" customHeight="1" spans="8:8">
       <c r="H425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" customHeight="1" spans="8:8">
       <c r="H426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" customHeight="1" spans="8:8">
       <c r="H427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" customHeight="1" spans="8:8">
       <c r="H428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" customHeight="1" spans="8:8">
       <c r="H429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" customHeight="1" spans="8:8">
       <c r="H430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" customHeight="1" spans="8:8">
       <c r="H431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" customHeight="1" spans="8:8">
       <c r="H432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" customHeight="1" spans="8:8">
       <c r="H433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" customHeight="1" spans="8:8">
       <c r="H434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" customHeight="1" spans="8:8">
       <c r="H435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" customHeight="1" spans="8:8">
       <c r="H436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" customHeight="1" spans="8:8">
       <c r="H437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" customHeight="1" spans="8:8">
       <c r="H438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" customHeight="1" spans="8:8">
       <c r="H439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" customHeight="1" spans="8:8">
       <c r="H440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" customHeight="1" spans="8:8">
       <c r="H441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" customHeight="1" spans="8:8">
       <c r="H442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" customHeight="1" spans="8:8">
       <c r="H443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" customHeight="1" spans="8:8">
       <c r="H444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" customHeight="1" spans="8:8">
       <c r="H445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" customHeight="1" spans="8:8">
       <c r="H446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" customHeight="1" spans="8:8">
       <c r="H447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" customHeight="1" spans="8:8">
       <c r="H448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" customHeight="1" spans="8:8">
       <c r="H449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" customHeight="1" spans="8:8">
       <c r="H450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" customHeight="1" spans="8:8">
       <c r="H451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" customHeight="1" spans="8:8">
       <c r="H452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" customHeight="1" spans="8:8">
       <c r="H453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" customHeight="1" spans="8:8">
       <c r="H454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" customHeight="1" spans="8:8">
       <c r="H455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" customHeight="1" spans="8:8">
       <c r="H456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" customHeight="1" spans="8:8">
       <c r="H457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" customHeight="1" spans="8:8">
       <c r="H458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" customHeight="1" spans="8:8">
       <c r="H459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" customHeight="1" spans="8:8">
       <c r="H460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" customHeight="1" spans="8:8">
       <c r="H461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" customHeight="1" spans="8:8">
       <c r="H462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" customHeight="1" spans="8:8">
       <c r="H463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" customHeight="1" spans="8:8">
       <c r="H464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" customHeight="1" spans="8:8">
       <c r="H465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" customHeight="1" spans="8:8">
       <c r="H466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" customHeight="1" spans="8:8">
       <c r="H467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" customHeight="1" spans="8:8">
       <c r="H468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" customHeight="1" spans="8:8">
       <c r="H469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" customHeight="1" spans="8:8">
       <c r="H470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" customHeight="1" spans="8:8">
       <c r="H471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" customHeight="1" spans="8:8">
       <c r="H472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" customHeight="1" spans="8:8">
       <c r="H473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" customHeight="1" spans="8:8">
       <c r="H474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" customHeight="1" spans="8:8">
       <c r="H475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" customHeight="1" spans="8:8">
       <c r="H476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" customHeight="1" spans="8:8">
       <c r="H477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" customHeight="1" spans="8:8">
       <c r="H478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" customHeight="1" spans="8:8">
       <c r="H479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" customHeight="1" spans="8:8">
       <c r="H480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" customHeight="1" spans="8:8">
       <c r="H481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" customHeight="1" spans="8:8">
       <c r="H482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" customHeight="1" spans="8:8">
       <c r="H483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" customHeight="1" spans="8:8">
       <c r="H484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" customHeight="1" spans="8:8">
       <c r="H485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" customHeight="1" spans="8:8">
       <c r="H486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" customHeight="1" spans="8:8">
       <c r="H487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" customHeight="1" spans="8:8">
       <c r="H488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" customHeight="1" spans="8:8">
       <c r="H489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" customHeight="1" spans="8:8">
       <c r="H490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" customHeight="1" spans="8:8">
       <c r="H491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" customHeight="1" spans="8:8">
       <c r="H492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" customHeight="1" spans="8:8">
       <c r="H493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" customHeight="1" spans="8:8">
       <c r="H494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" customHeight="1" spans="8:8">
       <c r="H495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" customHeight="1" spans="8:8">
       <c r="H496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" customHeight="1" spans="8:8">
       <c r="H497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" customHeight="1" spans="8:8">
       <c r="H498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" customHeight="1" spans="8:8">
       <c r="H499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" customHeight="1" spans="8:8">
       <c r="H500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" customHeight="1" spans="8:8">
       <c r="H501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" customHeight="1" spans="8:8">
       <c r="H502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" customHeight="1" spans="8:8">
       <c r="H503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" customHeight="1" spans="8:8">
       <c r="H504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" customHeight="1" spans="8:8">
       <c r="H505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" customHeight="1" spans="8:8">
       <c r="H506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" customHeight="1" spans="8:8">
       <c r="H507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" customHeight="1" spans="8:8">
       <c r="H508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" customHeight="1" spans="8:8">
       <c r="H509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" customHeight="1" spans="8:8">
       <c r="H510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" customHeight="1" spans="8:8">
       <c r="H511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" customHeight="1" spans="8:8">
       <c r="H512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" customHeight="1" spans="8:8">
       <c r="H513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" customHeight="1" spans="8:8">
       <c r="H514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" customHeight="1" spans="8:8">
       <c r="H515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" customHeight="1" spans="8:8">
       <c r="H516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" customHeight="1" spans="8:8">
       <c r="H517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" customHeight="1" spans="8:8">
       <c r="H518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" customHeight="1" spans="8:8">
       <c r="H519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" customHeight="1" spans="8:8">
       <c r="H520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" customHeight="1" spans="8:8">
       <c r="H521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" customHeight="1" spans="8:8">
       <c r="H522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" customHeight="1" spans="8:8">
       <c r="H523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" customHeight="1" spans="8:8">
       <c r="H524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" customHeight="1" spans="8:8">
       <c r="H525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" customHeight="1" spans="8:8">
       <c r="H526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" customHeight="1" spans="8:8">
       <c r="H527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" customHeight="1" spans="8:8">
       <c r="H528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" customHeight="1" spans="8:8">
       <c r="H529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" customHeight="1" spans="8:8">
       <c r="H530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" customHeight="1" spans="8:8">
       <c r="H531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" customHeight="1" spans="8:8">
       <c r="H532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" customHeight="1" spans="8:8">
       <c r="H533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" customHeight="1" spans="8:8">
       <c r="H534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" customHeight="1" spans="8:8">
       <c r="H535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" customHeight="1" spans="8:8">
       <c r="H536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" customHeight="1" spans="8:8">
       <c r="H537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" customHeight="1" spans="8:8">
       <c r="H538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" customHeight="1" spans="8:8">
       <c r="H539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" customHeight="1" spans="8:8">
       <c r="H540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" customHeight="1" spans="8:8">
       <c r="H541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" customHeight="1" spans="8:8">
       <c r="H542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" customHeight="1" spans="8:8">
       <c r="H543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" customHeight="1" spans="8:8">
       <c r="H544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" customHeight="1" spans="8:8">
       <c r="H545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" customHeight="1" spans="8:8">
       <c r="H546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" customHeight="1" spans="8:8">
       <c r="H547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" customHeight="1" spans="8:8">
       <c r="H548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" customHeight="1" spans="8:8">
       <c r="H549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" customHeight="1" spans="8:8">
       <c r="H550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" customHeight="1" spans="8:8">
       <c r="H551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" customHeight="1" spans="8:8">
       <c r="H552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" customHeight="1" spans="8:8">
       <c r="H553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" customHeight="1" spans="8:8">
       <c r="H554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" customHeight="1" spans="8:8">
       <c r="H555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" customHeight="1" spans="8:8">
       <c r="H556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" customHeight="1" spans="8:8">
       <c r="H557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" customHeight="1" spans="8:8">
       <c r="H558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" customHeight="1" spans="8:8">
       <c r="H559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" customHeight="1" spans="8:8">
       <c r="H560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" customHeight="1" spans="8:8">
       <c r="H561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" customHeight="1" spans="8:8">
       <c r="H562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" customHeight="1" spans="8:8">
       <c r="H563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" customHeight="1" spans="8:8">
       <c r="H564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" customHeight="1" spans="8:8">
       <c r="H565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" customHeight="1" spans="8:8">
       <c r="H566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" customHeight="1" spans="8:8">
       <c r="H567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" customHeight="1" spans="8:8">
       <c r="H568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" customHeight="1" spans="8:8">
       <c r="H569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" customHeight="1" spans="8:8">
       <c r="H570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" customHeight="1" spans="8:8">
       <c r="H571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" customHeight="1" spans="8:8">
       <c r="H572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" customHeight="1" spans="8:8">
       <c r="H573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" customHeight="1" spans="8:8">
       <c r="H574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" customHeight="1" spans="8:8">
       <c r="H575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" customHeight="1" spans="8:8">
       <c r="H576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" customHeight="1" spans="8:8">
       <c r="H577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" customHeight="1" spans="8:8">
       <c r="H578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" customHeight="1" spans="8:8">
       <c r="H579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" customHeight="1" spans="8:8">
       <c r="H580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" customHeight="1" spans="8:8">
       <c r="H581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" customHeight="1" spans="8:8">
       <c r="H582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" customHeight="1" spans="8:8">
       <c r="H583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" customHeight="1" spans="8:8">
       <c r="H584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" customHeight="1" spans="8:8">
       <c r="H585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" customHeight="1" spans="8:8">
       <c r="H586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" customHeight="1" spans="8:8">
       <c r="H587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" customHeight="1" spans="8:8">
       <c r="H588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" customHeight="1" spans="8:8">
       <c r="H589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" customHeight="1" spans="8:8">
       <c r="H590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" customHeight="1" spans="8:8">
       <c r="H591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" customHeight="1" spans="8:8">
       <c r="H592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" customHeight="1" spans="8:8">
       <c r="H593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" customHeight="1" spans="8:8">
       <c r="H594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" customHeight="1" spans="8:8">
       <c r="H595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" customHeight="1" spans="8:8">
       <c r="H596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" customHeight="1" spans="8:8">
       <c r="H597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" customHeight="1" spans="8:8">
       <c r="H598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" customHeight="1" spans="8:8">
       <c r="H599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" customHeight="1" spans="8:8">
       <c r="H600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" customHeight="1" spans="8:8">
       <c r="H601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" customHeight="1" spans="8:8">
       <c r="H602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" customHeight="1" spans="8:8">
       <c r="H603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" customHeight="1" spans="8:8">
       <c r="H604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" customHeight="1" spans="8:8">
       <c r="H605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" customHeight="1" spans="8:8">
       <c r="H606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" customHeight="1" spans="8:8">
       <c r="H607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" customHeight="1" spans="8:8">
       <c r="H608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" customHeight="1" spans="8:8">
       <c r="H609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" customHeight="1" spans="8:8">
       <c r="H610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" customHeight="1" spans="8:8">
       <c r="H611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" customHeight="1" spans="8:8">
       <c r="H612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" customHeight="1" spans="8:8">
       <c r="H613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" customHeight="1" spans="8:8">
       <c r="H614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" customHeight="1" spans="8:8">
       <c r="H615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" customHeight="1" spans="8:8">
       <c r="H616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" customHeight="1" spans="8:8">
       <c r="H617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" customHeight="1" spans="8:8">
       <c r="H618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" customHeight="1" spans="8:8">
       <c r="H619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" customHeight="1" spans="8:8">
       <c r="H620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" customHeight="1" spans="8:8">
       <c r="H621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" customHeight="1" spans="8:8">
       <c r="H622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" customHeight="1" spans="8:8">
       <c r="H623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" customHeight="1" spans="8:8">
       <c r="H624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" customHeight="1" spans="8:8">
       <c r="H625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" customHeight="1" spans="8:8">
       <c r="H626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" customHeight="1" spans="8:8">
       <c r="H627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" customHeight="1" spans="8:8">
       <c r="H628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" customHeight="1" spans="8:8">
       <c r="H629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" customHeight="1" spans="8:8">
       <c r="H630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" customHeight="1" spans="8:8">
       <c r="H631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" customHeight="1" spans="8:8">
       <c r="H632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" customHeight="1" spans="8:8">
       <c r="H633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" customHeight="1" spans="8:8">
       <c r="H634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" customHeight="1" spans="8:8">
       <c r="H635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" customHeight="1" spans="8:8">
       <c r="H636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" customHeight="1" spans="8:8">
       <c r="H637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" customHeight="1" spans="8:8">
       <c r="H638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" customHeight="1" spans="8:8">
       <c r="H639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" customHeight="1" spans="8:8">
       <c r="H640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" customHeight="1" spans="8:8">
       <c r="H641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" customHeight="1" spans="8:8">
       <c r="H642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" customHeight="1" spans="8:8">
       <c r="H643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" customHeight="1" spans="8:8">
       <c r="H644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" customHeight="1" spans="8:8">
       <c r="H645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" customHeight="1" spans="8:8">
       <c r="H646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" customHeight="1" spans="8:8">
       <c r="H647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" customHeight="1" spans="8:8">
       <c r="H648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" customHeight="1" spans="8:8">
       <c r="H649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" customHeight="1" spans="8:8">
       <c r="H650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" customHeight="1" spans="8:8">
       <c r="H651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" customHeight="1" spans="8:8">
       <c r="H652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" customHeight="1" spans="8:8">
       <c r="H653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" customHeight="1" spans="8:8">
       <c r="H654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" customHeight="1" spans="8:8">
       <c r="H655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" customHeight="1" spans="8:8">
       <c r="H656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" customHeight="1" spans="8:8">
       <c r="H657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" customHeight="1" spans="8:8">
       <c r="H658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" customHeight="1" spans="8:8">
       <c r="H659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" customHeight="1" spans="8:8">
       <c r="H660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" customHeight="1" spans="8:8">
       <c r="H661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" customHeight="1" spans="8:8">
       <c r="H662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" customHeight="1" spans="8:8">
       <c r="H663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" customHeight="1" spans="8:8">
       <c r="H664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" customHeight="1" spans="8:8">
       <c r="H665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" customHeight="1" spans="8:8">
       <c r="H666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" customHeight="1" spans="8:8">
       <c r="H667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" customHeight="1" spans="8:8">
       <c r="H668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" customHeight="1" spans="8:8">
       <c r="H669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" customHeight="1" spans="8:8">
       <c r="H670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" customHeight="1" spans="8:8">
       <c r="H671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" customHeight="1" spans="8:8">
       <c r="H672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" customHeight="1" spans="8:8">
       <c r="H673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" customHeight="1" spans="8:8">
       <c r="H674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" customHeight="1" spans="8:8">
       <c r="H675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" customHeight="1" spans="8:8">
       <c r="H676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" customHeight="1" spans="8:8">
       <c r="H677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" customHeight="1" spans="8:8">
       <c r="H678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" customHeight="1" spans="8:8">
       <c r="H679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" customHeight="1" spans="8:8">
       <c r="H680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" customHeight="1" spans="8:8">
       <c r="H681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" customHeight="1" spans="8:8">
       <c r="H682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" customHeight="1" spans="8:8">
       <c r="H683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" customHeight="1" spans="8:8">
       <c r="H684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" customHeight="1" spans="8:8">
       <c r="H685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" customHeight="1" spans="8:8">
       <c r="H686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" customHeight="1" spans="8:8">
       <c r="H687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" customHeight="1" spans="8:8">
       <c r="H688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" customHeight="1" spans="8:8">
       <c r="H689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" customHeight="1" spans="8:8">
       <c r="H690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" customHeight="1" spans="8:8">
       <c r="H691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" customHeight="1" spans="8:8">
       <c r="H692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" customHeight="1" spans="8:8">
       <c r="H693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" customHeight="1" spans="8:8">
       <c r="H694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" customHeight="1" spans="8:8">
       <c r="H695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" customHeight="1" spans="8:8">
       <c r="H696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" customHeight="1" spans="8:8">
       <c r="H697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" customHeight="1" spans="8:8">
       <c r="H698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" customHeight="1" spans="8:8">
       <c r="H699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" customHeight="1" spans="8:8">
       <c r="H700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" customHeight="1" spans="8:8">
       <c r="H701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" customHeight="1" spans="8:8">
       <c r="H702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" customHeight="1" spans="8:8">
       <c r="H703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" customHeight="1" spans="8:8">
       <c r="H704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" customHeight="1" spans="8:8">
       <c r="H705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" customHeight="1" spans="8:8">
       <c r="H706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" customHeight="1" spans="8:8">
       <c r="H707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" customHeight="1" spans="8:8">
       <c r="H708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" customHeight="1" spans="8:8">
       <c r="H709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" customHeight="1" spans="8:8">
       <c r="H710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" customHeight="1" spans="8:8">
       <c r="H711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" customHeight="1" spans="8:8">
       <c r="H712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" customHeight="1" spans="8:8">
       <c r="H713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" customHeight="1" spans="8:8">
       <c r="H714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" customHeight="1" spans="8:8">
       <c r="H715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" customHeight="1" spans="8:8">
       <c r="H716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" customHeight="1" spans="8:8">
       <c r="H717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" customHeight="1" spans="8:8">
       <c r="H718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" customHeight="1" spans="8:8">
       <c r="H719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" customHeight="1" spans="8:8">
       <c r="H720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" customHeight="1" spans="8:8">
       <c r="H721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" customHeight="1" spans="8:8">
       <c r="H722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" customHeight="1" spans="8:8">
       <c r="H723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" customHeight="1" spans="8:8">
       <c r="H724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" customHeight="1" spans="8:8">
       <c r="H725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" customHeight="1" spans="8:8">
       <c r="H726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" customHeight="1" spans="8:8">
       <c r="H727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" customHeight="1" spans="8:8">
       <c r="H728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" customHeight="1" spans="8:8">
       <c r="H729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" customHeight="1" spans="8:8">
       <c r="H730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" customHeight="1" spans="8:8">
       <c r="H731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" customHeight="1" spans="8:8">
       <c r="H732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" customHeight="1" spans="8:8">
       <c r="H733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" customHeight="1" spans="8:8">
       <c r="H734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" customHeight="1" spans="8:8">
       <c r="H735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" customHeight="1" spans="8:8">
       <c r="H736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" customHeight="1" spans="8:8">
       <c r="H737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" customHeight="1" spans="8:8">
       <c r="H738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" customHeight="1" spans="8:8">
       <c r="H739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" customHeight="1" spans="8:8">
       <c r="H740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" customHeight="1" spans="8:8">
       <c r="H741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" customHeight="1" spans="8:8">
       <c r="H742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" customHeight="1" spans="8:8">
       <c r="H743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" customHeight="1" spans="8:8">
       <c r="H744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" customHeight="1" spans="8:8">
       <c r="H745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" customHeight="1" spans="8:8">
       <c r="H746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" customHeight="1" spans="8:8">
       <c r="H747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" customHeight="1" spans="8:8">
       <c r="H748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" customHeight="1" spans="8:8">
       <c r="H749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" customHeight="1" spans="8:8">
       <c r="H750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" customHeight="1" spans="8:8">
       <c r="H751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" customHeight="1" spans="8:8">
       <c r="H752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" customHeight="1" spans="8:8">
       <c r="H753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" customHeight="1" spans="8:8">
       <c r="H754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" customHeight="1" spans="8:8">
       <c r="H755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" customHeight="1" spans="8:8">
       <c r="H756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" customHeight="1" spans="8:8">
       <c r="H757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" customHeight="1" spans="8:8">
       <c r="H758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" customHeight="1" spans="8:8">
       <c r="H759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" customHeight="1" spans="8:8">
       <c r="H760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" customHeight="1" spans="8:8">
       <c r="H761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" customHeight="1" spans="8:8">
       <c r="H762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" customHeight="1" spans="8:8">
       <c r="H763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" customHeight="1" spans="8:8">
       <c r="H764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" customHeight="1" spans="8:8">
       <c r="H765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" customHeight="1" spans="8:8">
       <c r="H766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" customHeight="1" spans="8:8">
       <c r="H767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" customHeight="1" spans="8:8">
       <c r="H768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" customHeight="1" spans="8:8">
       <c r="H769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" customHeight="1" spans="8:8">
       <c r="H770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" customHeight="1" spans="8:8">
       <c r="H771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" customHeight="1" spans="8:8">
       <c r="H772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" customHeight="1" spans="8:8">
       <c r="H773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" customHeight="1" spans="8:8">
       <c r="H774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" customHeight="1" spans="8:8">
       <c r="H775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" customHeight="1" spans="8:8">
       <c r="H776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" customHeight="1" spans="8:8">
       <c r="H777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" customHeight="1" spans="8:8">
       <c r="H778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" customHeight="1" spans="8:8">
       <c r="H779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" customHeight="1" spans="8:8">
       <c r="H780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" customHeight="1" spans="8:8">
       <c r="H781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" customHeight="1" spans="8:8">
       <c r="H782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" customHeight="1" spans="8:8">
       <c r="H783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" customHeight="1" spans="8:8">
       <c r="H784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" customHeight="1" spans="8:8">
       <c r="H785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" customHeight="1" spans="8:8">
       <c r="H786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" customHeight="1" spans="8:8">
       <c r="H787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" customHeight="1" spans="8:8">
       <c r="H788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" customHeight="1" spans="8:8">
       <c r="H789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" customHeight="1" spans="8:8">
       <c r="H790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" customHeight="1" spans="8:8">
       <c r="H791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" customHeight="1" spans="8:8">
       <c r="H792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" customHeight="1" spans="8:8">
       <c r="H793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" customHeight="1" spans="8:8">
       <c r="H794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" customHeight="1" spans="8:8">
       <c r="H795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" customHeight="1" spans="8:8">
       <c r="H796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" customHeight="1" spans="8:8">
       <c r="H797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" customHeight="1" spans="8:8">
       <c r="H798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" customHeight="1" spans="8:8">
       <c r="H799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" customHeight="1" spans="8:8">
       <c r="H800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" customHeight="1" spans="8:8">
       <c r="H801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" customHeight="1" spans="8:8">
       <c r="H802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" customHeight="1" spans="8:8">
       <c r="H803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" customHeight="1" spans="8:8">
       <c r="H804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" customHeight="1" spans="8:8">
       <c r="H805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" customHeight="1" spans="8:8">
       <c r="H806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" customHeight="1" spans="8:8">
       <c r="H807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" customHeight="1" spans="8:8">
       <c r="H808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" customHeight="1" spans="8:8">
       <c r="H809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" customHeight="1" spans="8:8">
       <c r="H810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" customHeight="1" spans="8:8">
       <c r="H811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" customHeight="1" spans="8:8">
       <c r="H812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" customHeight="1" spans="8:8">
       <c r="H813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" customHeight="1" spans="8:8">
       <c r="H814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" customHeight="1" spans="8:8">
       <c r="H815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" customHeight="1" spans="8:8">
       <c r="H816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" customHeight="1" spans="8:8">
       <c r="H817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" customHeight="1" spans="8:8">
       <c r="H818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" customHeight="1" spans="8:8">
       <c r="H819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" customHeight="1" spans="8:8">
       <c r="H820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" customHeight="1" spans="8:8">
       <c r="H821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" customHeight="1" spans="8:8">
       <c r="H822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" customHeight="1" spans="8:8">
       <c r="H823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" customHeight="1" spans="8:8">
       <c r="H824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" customHeight="1" spans="8:8">
       <c r="H825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" customHeight="1" spans="8:8">
       <c r="H826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" customHeight="1" spans="8:8">
       <c r="H827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" customHeight="1" spans="8:8">
       <c r="H828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" customHeight="1" spans="8:8">
       <c r="H829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" customHeight="1" spans="8:8">
       <c r="H830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" customHeight="1" spans="8:8">
       <c r="H831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" customHeight="1" spans="8:8">
       <c r="H832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" customHeight="1" spans="8:8">
       <c r="H833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" customHeight="1" spans="8:8">
       <c r="H834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" customHeight="1" spans="8:8">
       <c r="H835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" customHeight="1" spans="8:8">
       <c r="H836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" customHeight="1" spans="8:8">
       <c r="H837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" customHeight="1" spans="8:8">
       <c r="H838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" customHeight="1" spans="8:8">
       <c r="H839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" customHeight="1" spans="8:8">
       <c r="H840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" customHeight="1" spans="8:8">
       <c r="H841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" customHeight="1" spans="8:8">
       <c r="H842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" customHeight="1" spans="8:8">
       <c r="H843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" customHeight="1" spans="8:8">
       <c r="H844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" customHeight="1" spans="8:8">
       <c r="H845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" customHeight="1" spans="8:8">
       <c r="H846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" customHeight="1" spans="8:8">
       <c r="H847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" customHeight="1" spans="8:8">
       <c r="H848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" customHeight="1" spans="8:8">
       <c r="H849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" customHeight="1" spans="8:8">
       <c r="H850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" customHeight="1" spans="8:8">
       <c r="H851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" customHeight="1" spans="8:8">
       <c r="H852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" customHeight="1" spans="8:8">
       <c r="H853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" customHeight="1" spans="8:8">
       <c r="H854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" customHeight="1" spans="8:8">
       <c r="H855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" customHeight="1" spans="8:8">
       <c r="H856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" customHeight="1" spans="8:8">
       <c r="H857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" customHeight="1" spans="8:8">
       <c r="H858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" customHeight="1" spans="8:8">
       <c r="H859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" customHeight="1" spans="8:8">
       <c r="H860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" customHeight="1" spans="8:8">
       <c r="H861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" customHeight="1" spans="8:8">
       <c r="H862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" customHeight="1" spans="8:8">
       <c r="H863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" customHeight="1" spans="8:8">
       <c r="H864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" customHeight="1" spans="8:8">
       <c r="H865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" customHeight="1" spans="8:8">
       <c r="H866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" customHeight="1" spans="8:8">
       <c r="H867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" customHeight="1" spans="8:8">
       <c r="H868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" customHeight="1" spans="8:8">
       <c r="H869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" customHeight="1" spans="8:8">
       <c r="H870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" customHeight="1" spans="8:8">
       <c r="H871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" customHeight="1" spans="8:8">
       <c r="H872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" customHeight="1" spans="8:8">
       <c r="H873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" customHeight="1" spans="8:8">
       <c r="H874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" customHeight="1" spans="8:8">
       <c r="H875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" customHeight="1" spans="8:8">
       <c r="H876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" customHeight="1" spans="8:8">
       <c r="H877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" customHeight="1" spans="8:8">
       <c r="H878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" customHeight="1" spans="8:8">
       <c r="H879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" customHeight="1" spans="8:8">
       <c r="H880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" customHeight="1" spans="8:8">
       <c r="H881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" customHeight="1" spans="8:8">
       <c r="H882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" customHeight="1" spans="8:8">
       <c r="H883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" customHeight="1" spans="8:8">
       <c r="H884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" customHeight="1" spans="8:8">
       <c r="H885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" customHeight="1" spans="8:8">
       <c r="H886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" customHeight="1" spans="8:8">
       <c r="H887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" customHeight="1" spans="8:8">
       <c r="H888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" customHeight="1" spans="8:8">
       <c r="H889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" customHeight="1" spans="8:8">
       <c r="H890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" customHeight="1" spans="8:8">
       <c r="H891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" customHeight="1" spans="8:8">
       <c r="H892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" customHeight="1" spans="8:8">
       <c r="H893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" customHeight="1" spans="8:8">
       <c r="H894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" customHeight="1" spans="8:8">
       <c r="H895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" customHeight="1" spans="8:8">
       <c r="H896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" customHeight="1" spans="8:8">
       <c r="H897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" customHeight="1" spans="8:8">
       <c r="H898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" customHeight="1" spans="8:8">
       <c r="H899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" customHeight="1" spans="8:8">
       <c r="H900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" customHeight="1" spans="8:8">
       <c r="H901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" customHeight="1" spans="8:8">
       <c r="H902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" customHeight="1" spans="8:8">
       <c r="H903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" customHeight="1" spans="8:8">
       <c r="H904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" customHeight="1" spans="8:8">
       <c r="H905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" customHeight="1" spans="8:8">
       <c r="H906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" customHeight="1" spans="8:8">
       <c r="H907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" customHeight="1" spans="8:8">
       <c r="H908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" customHeight="1" spans="8:8">
       <c r="H909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" customHeight="1" spans="8:8">
       <c r="H910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" customHeight="1" spans="8:8">
       <c r="H911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" customHeight="1" spans="8:8">
       <c r="H912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" customHeight="1" spans="8:8">
       <c r="H913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" customHeight="1" spans="8:8">
       <c r="H914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" customHeight="1" spans="8:8">
       <c r="H915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" customHeight="1" spans="8:8">
       <c r="H916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" customHeight="1" spans="8:8">
       <c r="H917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" customHeight="1" spans="8:8">
       <c r="H918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" customHeight="1" spans="8:8">
       <c r="H919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" customHeight="1" spans="8:8">
       <c r="H920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" customHeight="1" spans="8:8">
       <c r="H921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" customHeight="1" spans="8:8">
       <c r="H922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" customHeight="1" spans="8:8">
       <c r="H923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" customHeight="1" spans="8:8">
       <c r="H924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" customHeight="1" spans="8:8">
       <c r="H925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" customHeight="1" spans="8:8">
       <c r="H926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" customHeight="1" spans="8:8">
       <c r="H927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" customHeight="1" spans="8:8">
       <c r="H928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" customHeight="1" spans="8:8">
       <c r="H929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" customHeight="1" spans="8:8">
       <c r="H930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" customHeight="1" spans="8:8">
       <c r="H931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" customHeight="1" spans="8:8">
       <c r="H932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" customHeight="1" spans="8:8">
       <c r="H933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" customHeight="1" spans="8:8">
       <c r="H934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" customHeight="1" spans="8:8">
       <c r="H935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" customHeight="1" spans="8:8">
       <c r="H936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" customHeight="1" spans="8:8">
       <c r="H937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" customHeight="1" spans="8:8">
       <c r="H938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" customHeight="1" spans="8:8">
       <c r="H939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" customHeight="1" spans="8:8">
       <c r="H940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" customHeight="1" spans="8:8">
       <c r="H941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" customHeight="1" spans="8:8">
       <c r="H942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" customHeight="1" spans="8:8">
       <c r="H943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" customHeight="1" spans="8:8">
       <c r="H944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" customHeight="1" spans="8:8">
       <c r="H945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" customHeight="1" spans="8:8">
       <c r="H946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" customHeight="1" spans="8:8">
       <c r="H947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" customHeight="1" spans="8:8">
       <c r="H948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" customHeight="1" spans="8:8">
       <c r="H949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" customHeight="1" spans="8:8">
       <c r="H950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" customHeight="1" spans="8:8">
       <c r="H951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" customHeight="1" spans="8:8">
       <c r="H952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" customHeight="1" spans="8:8">
       <c r="H953" s="3"/>
     </row>
-    <row r="954">
-      <c r="H954" s="3"/>
-    </row>
-    <row r="955">
-      <c r="H955" s="3"/>
-    </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" cellComments="atEnd"/>
+  <headerFooter/>
 </worksheet>
 </file>